--- a/Process_Design/T=820K,P=1atm.xlsx
+++ b/Process_Design/T=820K,P=1atm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Economic Potential 2</t>
   </si>
@@ -55,6 +55,9 @@
     <t>Length(ft)</t>
   </si>
   <si>
+    <t>Fc</t>
+  </si>
+  <si>
     <t>installation_cost</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>annual_capital_investment</t>
+  </si>
+  <si>
+    <t>reactor_volume</t>
   </si>
   <si>
     <t>catalyst_cost</t>
@@ -76,10 +82,28 @@
     <t>Reactor_Heating_Cost</t>
   </si>
   <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>TLM</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
     <t>annual_reactor_heating_cost</t>
   </si>
   <si>
     <t>Water_Cost</t>
+  </si>
+  <si>
+    <t>Reactor Q</t>
+  </si>
+  <si>
+    <t>delta_temp</t>
+  </si>
+  <si>
+    <t>price_coolingwater</t>
   </si>
   <si>
     <t>volume_flowrate</t>
@@ -91,6 +115,12 @@
     <t>Furnace_Cost</t>
   </si>
   <si>
+    <t>Furnace Heat Duty</t>
+  </si>
+  <si>
+    <t>price_fuel</t>
+  </si>
+  <si>
     <t>annual_operating_cost</t>
   </si>
   <si>
@@ -98,6 +128,15 @@
   </si>
   <si>
     <t>Pump_Cost</t>
+  </si>
+  <si>
+    <t>pressure drop</t>
+  </si>
+  <si>
+    <t>shaft work</t>
+  </si>
+  <si>
+    <t>price_electricity</t>
   </si>
   <si>
     <t>annual_pump_cost</t>
@@ -467,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB31"/>
+  <dimension ref="A1:BQ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:69">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,106 +577,151 @@
         <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>31</v>
+      <c r="BQ1" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:69">
       <c r="B2">
         <v>0.0511843662</v>
       </c>
@@ -675,112 +759,157 @@
         <v>49.215</v>
       </c>
       <c r="O2">
+        <v>2.3625</v>
+      </c>
+      <c r="P2">
         <v>368007.7505541802</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>771344.2451615616</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>257114.7483871872</v>
       </c>
-      <c r="R2">
+      <c r="S2">
+        <v>26.50718801466388</v>
+      </c>
+      <c r="T2">
         <v>21008.27186102186</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>1783514.746534669</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>2040629.494921856</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>0.0511843662</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
+        <v>113.565</v>
+      </c>
+      <c r="Z2">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA2">
+        <v>350.6405087564291</v>
+      </c>
+      <c r="AB2">
+        <v>3.7935</v>
+      </c>
+      <c r="AC2">
         <v>178664.3026382595</v>
       </c>
-      <c r="X2">
+      <c r="AD2">
         <v>373408.3925139622</v>
       </c>
-      <c r="Y2">
+      <c r="AE2">
         <v>124469.4641713207</v>
       </c>
-      <c r="Z2">
+      <c r="AF2">
         <v>124469.4641713207</v>
       </c>
-      <c r="AB2">
+      <c r="AH2">
         <v>0.0511843662</v>
       </c>
-      <c r="AC2">
+      <c r="AI2">
+        <v>-1.93085771</v>
+      </c>
+      <c r="AJ2">
+        <v>20</v>
+      </c>
+      <c r="AK2">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL2">
         <v>676845.4234814713</v>
       </c>
-      <c r="AD2">
+      <c r="AM2">
         <v>5495.984838669546</v>
       </c>
-      <c r="AF2">
+      <c r="AO2">
         <v>0.0511843662</v>
       </c>
-      <c r="AG2">
+      <c r="AP2">
+        <v>730.5753338103752</v>
+      </c>
+      <c r="AQ2">
+        <v>1.75</v>
+      </c>
+      <c r="AR2">
+        <v>29118952.55740798</v>
+      </c>
+      <c r="AS2">
+        <v>60858610.84498268</v>
+      </c>
+      <c r="AT2">
+        <v>20286203.61499422</v>
+      </c>
+      <c r="AU2">
+        <v>3.8</v>
+      </c>
+      <c r="AV2">
         <v>22625918.08810732</v>
       </c>
-      <c r="AH2">
-        <v>29118952.55740798</v>
-      </c>
-      <c r="AI2">
-        <v>60858610.84498268</v>
-      </c>
-      <c r="AJ2">
-        <v>20286203.61499422</v>
-      </c>
-      <c r="AK2">
+      <c r="AW2">
         <v>42912121.70310155</v>
       </c>
-      <c r="AM2">
+      <c r="AY2">
         <v>0.0511843662</v>
       </c>
-      <c r="AN2">
+      <c r="AZ2">
+        <v>506625</v>
+      </c>
+      <c r="BA2">
+        <v>77612.72196890347</v>
+      </c>
+      <c r="BB2">
+        <v>41967.43141963703</v>
+      </c>
+      <c r="BC2">
+        <v>87711.9316670414</v>
+      </c>
+      <c r="BD2">
+        <v>29237.31055568047</v>
+      </c>
+      <c r="BE2">
+        <v>0.035</v>
+      </c>
+      <c r="BF2">
         <v>29688.92174014981</v>
       </c>
-      <c r="AO2">
-        <v>41967.43141963703</v>
-      </c>
-      <c r="AP2">
-        <v>87711.9316670414</v>
-      </c>
-      <c r="AQ2">
-        <v>29237.31055568047</v>
-      </c>
-      <c r="AR2">
+      <c r="BG2">
         <v>58926.23229583028</v>
       </c>
-      <c r="AT2">
+      <c r="BI2">
         <v>0.0511843662</v>
       </c>
-      <c r="AU2">
+      <c r="BJ2">
         <v>0.6610093221542271</v>
       </c>
-      <c r="AV2">
+      <c r="BK2">
         <v>2040629.494921856</v>
       </c>
-      <c r="AW2">
+      <c r="BL2">
         <v>124469.4641713207</v>
       </c>
-      <c r="AX2">
+      <c r="BM2">
         <v>42912121.70310155</v>
       </c>
-      <c r="AY2">
+      <c r="BN2">
         <v>58926.23229583028</v>
       </c>
-      <c r="AZ2">
+      <c r="BO2">
         <v>5495.984838669546</v>
       </c>
-      <c r="BA2">
+      <c r="BP2">
         <v>71044269.74189943</v>
       </c>
-      <c r="BB2">
+      <c r="BQ2">
         <v>25902626.8625702</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:69">
       <c r="B3">
         <v>0.0629089238</v>
       </c>
@@ -818,112 +947,157 @@
         <v>51.1151862285</v>
       </c>
       <c r="O3">
+        <v>2.3625</v>
+      </c>
+      <c r="P3">
         <v>394993.6890871847</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>827906.7723267393</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>275968.9241089131</v>
       </c>
-      <c r="R3">
+      <c r="S3">
+        <v>29.6975780511202</v>
+      </c>
+      <c r="T3">
         <v>23536.81548441532</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>1998177.564562342</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>2274146.488671255</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>0.0629089238</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
+        <v>113.565</v>
+      </c>
+      <c r="Z3">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA3">
+        <v>359.1495956783323</v>
+      </c>
+      <c r="AB3">
+        <v>3.7935</v>
+      </c>
+      <c r="AC3">
         <v>181470.6645862897</v>
       </c>
-      <c r="X3">
+      <c r="AD3">
         <v>379273.6889853455</v>
       </c>
-      <c r="Y3">
+      <c r="AE3">
         <v>126424.5629951151</v>
       </c>
-      <c r="Z3">
+      <c r="AF3">
         <v>126424.5629951151</v>
       </c>
-      <c r="AB3">
+      <c r="AH3">
         <v>0.0629089238</v>
       </c>
-      <c r="AC3">
+      <c r="AI3">
+        <v>-1.97771435</v>
+      </c>
+      <c r="AJ3">
+        <v>20</v>
+      </c>
+      <c r="AK3">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL3">
         <v>693270.612235395</v>
       </c>
-      <c r="AD3">
+      <c r="AM3">
         <v>5629.357371351407</v>
       </c>
-      <c r="AF3">
+      <c r="AO3">
         <v>0.0629089238</v>
       </c>
-      <c r="AG3">
+      <c r="AP3">
+        <v>629.1257069541136</v>
+      </c>
+      <c r="AQ3">
+        <v>1.75</v>
+      </c>
+      <c r="AR3">
+        <v>25644091.10736316</v>
+      </c>
+      <c r="AS3">
+        <v>53596150.41438901</v>
+      </c>
+      <c r="AT3">
+        <v>17865383.471463</v>
+      </c>
+      <c r="AU3">
+        <v>3.8</v>
+      </c>
+      <c r="AV3">
         <v>19484023.1443689</v>
       </c>
-      <c r="AH3">
-        <v>25644091.10736316</v>
-      </c>
-      <c r="AI3">
-        <v>53596150.41438901</v>
-      </c>
-      <c r="AJ3">
-        <v>17865383.471463</v>
-      </c>
-      <c r="AK3">
+      <c r="AW3">
         <v>37349406.6158319</v>
       </c>
-      <c r="AM3">
+      <c r="AY3">
         <v>0.0629089238</v>
       </c>
-      <c r="AN3">
+      <c r="AZ3">
+        <v>506625</v>
+      </c>
+      <c r="BA3">
+        <v>66837.22894483111</v>
+      </c>
+      <c r="BB3">
+        <v>38247.48805796552</v>
+      </c>
+      <c r="BC3">
+        <v>79937.25004114794</v>
+      </c>
+      <c r="BD3">
+        <v>26645.75001371598</v>
+      </c>
+      <c r="BE3">
+        <v>0.035</v>
+      </c>
+      <c r="BF3">
         <v>25567.0102675514</v>
       </c>
-      <c r="AO3">
-        <v>38247.48805796552</v>
-      </c>
-      <c r="AP3">
-        <v>79937.25004114794</v>
-      </c>
-      <c r="AQ3">
-        <v>26645.75001371598</v>
-      </c>
-      <c r="AR3">
+      <c r="BG3">
         <v>52212.76028126737</v>
       </c>
-      <c r="AT3">
+      <c r="BI3">
         <v>0.0629089238</v>
       </c>
-      <c r="AU3">
+      <c r="BJ3">
         <v>0.6247173069017686</v>
       </c>
-      <c r="AV3">
+      <c r="BK3">
         <v>2274146.488671255</v>
       </c>
-      <c r="AW3">
+      <c r="BL3">
         <v>126424.5629951151</v>
       </c>
-      <c r="AX3">
+      <c r="BM3">
         <v>37349406.6158319</v>
       </c>
-      <c r="AY3">
+      <c r="BN3">
         <v>52212.76028126737</v>
       </c>
-      <c r="AZ3">
+      <c r="BO3">
         <v>5629.357371351407</v>
       </c>
-      <c r="BA3">
+      <c r="BP3">
         <v>70627220.00223675</v>
       </c>
-      <c r="BB3">
+      <c r="BQ3">
         <v>30819400.21708586</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:69">
       <c r="B4">
         <v>0.0738920851</v>
       </c>
@@ -961,112 +1135,157 @@
         <v>53.0887382418</v>
       </c>
       <c r="O4">
+        <v>2.3625</v>
+      </c>
+      <c r="P4">
         <v>423958.4981590902</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>888617.0121414532</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>296205.6707138177</v>
       </c>
-      <c r="R4">
+      <c r="S4">
+        <v>33.27196120826509</v>
+      </c>
+      <c r="T4">
         <v>26369.6928556105</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>2238677.0497211</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>2534882.720434918</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>0.0738920851</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
+        <v>113.565</v>
+      </c>
+      <c r="Z4">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA4">
+        <v>368.3927956090355</v>
+      </c>
+      <c r="AB4">
+        <v>3.7935</v>
+      </c>
+      <c r="AC4">
         <v>184492.9031863064</v>
       </c>
-      <c r="X4">
+      <c r="AD4">
         <v>385590.1676593802</v>
       </c>
-      <c r="Y4">
+      <c r="AE4">
         <v>128530.0558864601</v>
       </c>
-      <c r="Z4">
+      <c r="AF4">
         <v>128530.0558864601</v>
       </c>
-      <c r="AB4">
+      <c r="AH4">
         <v>0.0738920851</v>
       </c>
-      <c r="AC4">
+      <c r="AI4">
+        <v>-2.0286135</v>
+      </c>
+      <c r="AJ4">
+        <v>20</v>
+      </c>
+      <c r="AK4">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL4">
         <v>711112.8678082291</v>
       </c>
-      <c r="AD4">
+      <c r="AM4">
         <v>5774.23648660282</v>
       </c>
-      <c r="AF4">
+      <c r="AO4">
         <v>0.0738920851</v>
       </c>
-      <c r="AG4">
+      <c r="AP4">
+        <v>568.3895216434232</v>
+      </c>
+      <c r="AQ4">
+        <v>1.75</v>
+      </c>
+      <c r="AR4">
+        <v>23523917.52151198</v>
+      </c>
+      <c r="AS4">
+        <v>49164987.61996004</v>
+      </c>
+      <c r="AT4">
+        <v>16388329.20665335</v>
+      </c>
+      <c r="AU4">
+        <v>3.8</v>
+      </c>
+      <c r="AV4">
         <v>17603023.48529682</v>
       </c>
-      <c r="AH4">
-        <v>23523917.52151198</v>
-      </c>
-      <c r="AI4">
-        <v>49164987.61996004</v>
-      </c>
-      <c r="AJ4">
-        <v>16388329.20665335</v>
-      </c>
-      <c r="AK4">
+      <c r="AW4">
         <v>33991352.69195016</v>
       </c>
-      <c r="AM4">
+      <c r="AY4">
         <v>0.0738920851</v>
       </c>
-      <c r="AN4">
+      <c r="AZ4">
+        <v>506625</v>
+      </c>
+      <c r="BA4">
+        <v>60386.43358067345</v>
+      </c>
+      <c r="BB4">
+        <v>35905.14480565707</v>
+      </c>
+      <c r="BC4">
+        <v>75041.75264382326</v>
+      </c>
+      <c r="BD4">
+        <v>25013.91754794108</v>
+      </c>
+      <c r="BE4">
+        <v>0.035</v>
+      </c>
+      <c r="BF4">
         <v>23099.41019027371</v>
       </c>
-      <c r="AO4">
-        <v>35905.14480565707</v>
-      </c>
-      <c r="AP4">
-        <v>75041.75264382326</v>
-      </c>
-      <c r="AQ4">
-        <v>25013.91754794108</v>
-      </c>
-      <c r="AR4">
+      <c r="BG4">
         <v>48113.32773821479</v>
       </c>
-      <c r="AT4">
+      <c r="BI4">
         <v>0.0738920851</v>
       </c>
-      <c r="AU4">
+      <c r="BJ4">
         <v>0.5888503827833373</v>
       </c>
-      <c r="AV4">
+      <c r="BK4">
         <v>2534882.720434918</v>
       </c>
-      <c r="AW4">
+      <c r="BL4">
         <v>128530.0558864601</v>
       </c>
-      <c r="AX4">
+      <c r="BM4">
         <v>33991352.69195016</v>
       </c>
-      <c r="AY4">
+      <c r="BN4">
         <v>48113.32773821479</v>
       </c>
-      <c r="AZ4">
+      <c r="BO4">
         <v>5774.23648660282</v>
       </c>
-      <c r="BA4">
+      <c r="BP4">
         <v>70174831.41511086</v>
       </c>
-      <c r="BB4">
+      <c r="BQ4">
         <v>33466178.3826145</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:69">
       <c r="B5">
         <v>0.0844049009</v>
       </c>
@@ -1104,112 +1323,157 @@
         <v>55.1384888553</v>
       </c>
       <c r="O5">
+        <v>2.3625</v>
+      </c>
+      <c r="P5">
         <v>455047.2903736586</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>953779.1206231884</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>317926.3735410628</v>
       </c>
-      <c r="R5">
+      <c r="S5">
+        <v>37.27655495975156</v>
+      </c>
+      <c r="T5">
         <v>29543.5336333511</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>2508122.907414703</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>2826049.280955766</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>0.0844049009</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
+        <v>113.565</v>
+      </c>
+      <c r="Z5">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA5">
+        <v>378.4351697772464</v>
+      </c>
+      <c r="AB5">
+        <v>3.7935</v>
+      </c>
+      <c r="AC5">
         <v>187746.5219911942</v>
       </c>
-      <c r="X5">
+      <c r="AD5">
         <v>392390.2309615958</v>
       </c>
-      <c r="Y5">
+      <c r="AE5">
         <v>130796.7436538653</v>
       </c>
-      <c r="Z5">
+      <c r="AF5">
         <v>130796.7436538653</v>
       </c>
-      <c r="AB5">
+      <c r="AH5">
         <v>0.0844049009</v>
       </c>
-      <c r="AC5">
+      <c r="AI5">
+        <v>-2.08391343</v>
+      </c>
+      <c r="AJ5">
+        <v>20</v>
+      </c>
+      <c r="AK5">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL5">
         <v>730497.7786411177</v>
       </c>
-      <c r="AD5">
+      <c r="AM5">
         <v>5931.641962565875</v>
       </c>
-      <c r="AF5">
+      <c r="AO5">
         <v>0.0844049009</v>
       </c>
-      <c r="AG5">
+      <c r="AP5">
+        <v>529.4014022007592</v>
+      </c>
+      <c r="AQ5">
+        <v>1.75</v>
+      </c>
+      <c r="AR5">
+        <v>22145108.81450392</v>
+      </c>
+      <c r="AS5">
+        <v>46283277.42231319</v>
+      </c>
+      <c r="AT5">
+        <v>15427759.14077106</v>
+      </c>
+      <c r="AU5">
+        <v>3.8</v>
+      </c>
+      <c r="AV5">
         <v>16395561.42615751</v>
       </c>
-      <c r="AH5">
-        <v>22145108.81450392</v>
-      </c>
-      <c r="AI5">
-        <v>46283277.42231319</v>
-      </c>
-      <c r="AJ5">
-        <v>15427759.14077106</v>
-      </c>
-      <c r="AK5">
+      <c r="AW5">
         <v>31823320.56692857</v>
       </c>
-      <c r="AM5">
+      <c r="AY5">
         <v>0.0844049009</v>
       </c>
-      <c r="AN5">
+      <c r="AZ5">
+        <v>506625</v>
+      </c>
+      <c r="BA5">
+        <v>56245.84212411111</v>
+      </c>
+      <c r="BB5">
+        <v>34348.65559460355</v>
+      </c>
+      <c r="BC5">
+        <v>71788.69019272142</v>
+      </c>
+      <c r="BD5">
+        <v>23929.56339757381</v>
+      </c>
+      <c r="BE5">
+        <v>0.035</v>
+      </c>
+      <c r="BF5">
         <v>21515.5242938215</v>
       </c>
-      <c r="AO5">
-        <v>34348.65559460355</v>
-      </c>
-      <c r="AP5">
-        <v>71788.69019272142</v>
-      </c>
-      <c r="AQ5">
-        <v>23929.56339757381</v>
-      </c>
-      <c r="AR5">
+      <c r="BG5">
         <v>45445.08769139531</v>
       </c>
-      <c r="AT5">
+      <c r="BI5">
         <v>0.0844049009</v>
       </c>
-      <c r="AU5">
+      <c r="BJ5">
         <v>0.5536183588437018</v>
       </c>
-      <c r="AV5">
+      <c r="BK5">
         <v>2826049.280955766</v>
       </c>
-      <c r="AW5">
+      <c r="BL5">
         <v>130796.7436538653</v>
       </c>
-      <c r="AX5">
+      <c r="BM5">
         <v>31823320.56692857</v>
       </c>
-      <c r="AY5">
+      <c r="BN5">
         <v>45445.08769139531</v>
       </c>
-      <c r="AZ5">
+      <c r="BO5">
         <v>5931.641962565875</v>
       </c>
-      <c r="BA5">
+      <c r="BP5">
         <v>69680228.20795292</v>
       </c>
-      <c r="BB5">
+      <c r="BQ5">
         <v>34848684.88676075</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:69">
       <c r="B6">
         <v>0.094338321</v>
       </c>
@@ -1247,112 +1511,157 @@
         <v>57.2673804698</v>
       </c>
       <c r="O6">
+        <v>2.3625</v>
+      </c>
+      <c r="P6">
         <v>488415.8230225579</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1023719.565055282</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>341239.8550184271</v>
       </c>
-      <c r="R6">
+      <c r="S6">
+        <v>41.76314002272042</v>
+      </c>
+      <c r="T6">
         <v>33099.37662500707</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>2809999.161393829</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>3151239.016412256</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>0.094338321</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
+        <v>113.565</v>
+      </c>
+      <c r="Z6">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA6">
+        <v>389.3570427501405</v>
+      </c>
+      <c r="AB6">
+        <v>3.7935</v>
+      </c>
+      <c r="AC6">
         <v>191250.9733210792</v>
       </c>
-      <c r="X6">
+      <c r="AD6">
         <v>399714.5342410554</v>
       </c>
-      <c r="Y6">
+      <c r="AE6">
         <v>133238.1780803518</v>
       </c>
-      <c r="Z6">
+      <c r="AF6">
         <v>133238.1780803518</v>
       </c>
-      <c r="AB6">
+      <c r="AH6">
         <v>0.094338321</v>
       </c>
-      <c r="AC6">
+      <c r="AI6">
+        <v>-2.14405646</v>
+      </c>
+      <c r="AJ6">
+        <v>20</v>
+      </c>
+      <c r="AK6">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL6">
         <v>751580.3961737212</v>
       </c>
-      <c r="AD6">
+      <c r="AM6">
         <v>6102.832816930615</v>
       </c>
-      <c r="AF6">
+      <c r="AO6">
         <v>0.094338321</v>
       </c>
-      <c r="AG6">
+      <c r="AP6">
+        <v>505.2193055952224</v>
+      </c>
+      <c r="AQ6">
+        <v>1.75</v>
+      </c>
+      <c r="AR6">
+        <v>21282294.14854753</v>
+      </c>
+      <c r="AS6">
+        <v>44479994.77046434</v>
+      </c>
+      <c r="AT6">
+        <v>14826664.92348811</v>
+      </c>
+      <c r="AU6">
+        <v>3.8</v>
+      </c>
+      <c r="AV6">
         <v>15646641.89428404</v>
       </c>
-      <c r="AH6">
-        <v>21282294.14854753</v>
-      </c>
-      <c r="AI6">
-        <v>44479994.77046434</v>
-      </c>
-      <c r="AJ6">
-        <v>14826664.92348811</v>
-      </c>
-      <c r="AK6">
+      <c r="AW6">
         <v>30473306.81777215</v>
       </c>
-      <c r="AM6">
+      <c r="AY6">
         <v>0.094338321</v>
       </c>
-      <c r="AN6">
+      <c r="AZ6">
+        <v>506625</v>
+      </c>
+      <c r="BA6">
+        <v>53678.13498428532</v>
+      </c>
+      <c r="BB6">
+        <v>33360.35112449127</v>
+      </c>
+      <c r="BC6">
+        <v>69723.13385018674</v>
+      </c>
+      <c r="BD6">
+        <v>23241.04461672891</v>
+      </c>
+      <c r="BE6">
+        <v>0.035</v>
+      </c>
+      <c r="BF6">
         <v>20533.30830664797</v>
       </c>
-      <c r="AO6">
-        <v>33360.35112449127</v>
-      </c>
-      <c r="AP6">
-        <v>69723.13385018674</v>
-      </c>
-      <c r="AQ6">
-        <v>23241.04461672891</v>
-      </c>
-      <c r="AR6">
+      <c r="BG6">
         <v>43774.35292337688</v>
       </c>
-      <c r="AT6">
+      <c r="BI6">
         <v>0.094338321</v>
       </c>
-      <c r="AU6">
+      <c r="BJ6">
         <v>0.5191748736830291</v>
       </c>
-      <c r="AV6">
+      <c r="BK6">
         <v>3151239.016412256</v>
       </c>
-      <c r="AW6">
+      <c r="BL6">
         <v>133238.1780803518</v>
       </c>
-      <c r="AX6">
+      <c r="BM6">
         <v>30473306.81777215</v>
       </c>
-      <c r="AY6">
+      <c r="BN6">
         <v>43774.35292337688</v>
       </c>
-      <c r="AZ6">
+      <c r="BO6">
         <v>6102.832816930615</v>
       </c>
-      <c r="BA6">
+      <c r="BP6">
         <v>69135668.58800878</v>
       </c>
-      <c r="BB6">
+      <c r="BQ6">
         <v>35328007.39000371</v>
       </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:69">
       <c r="B7">
         <v>0.104102278</v>
       </c>
@@ -1390,112 +1699,157 @@
         <v>59.47846802440001</v>
       </c>
       <c r="O7">
+        <v>2.3625</v>
+      </c>
+      <c r="P7">
         <v>524231.2580799931</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1098788.716935666</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>366262.9056452218</v>
       </c>
-      <c r="R7">
+      <c r="S7">
+        <v>46.78972708723593</v>
+      </c>
+      <c r="T7">
         <v>37083.19820298885</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>3148209.014107907</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>3514471.919753129</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>0.104102278</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
+        <v>113.565</v>
+      </c>
+      <c r="Z7">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA7">
+        <v>401.1939696620262</v>
+      </c>
+      <c r="AB7">
+        <v>3.7935</v>
+      </c>
+      <c r="AC7">
         <v>195010.4072450962</v>
       </c>
-      <c r="X7">
+      <c r="AD7">
         <v>407571.751142251</v>
       </c>
-      <c r="Y7">
+      <c r="AE7">
         <v>135857.2503807503</v>
       </c>
-      <c r="Z7">
+      <c r="AF7">
         <v>135857.2503807503</v>
       </c>
-      <c r="AB7">
+      <c r="AH7">
         <v>0.104102278</v>
       </c>
-      <c r="AC7">
+      <c r="AI7">
+        <v>-2.20923838</v>
+      </c>
+      <c r="AJ7">
+        <v>20</v>
+      </c>
+      <c r="AK7">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL7">
         <v>774429.3528924094</v>
       </c>
-      <c r="AD7">
+      <c r="AM7">
         <v>6288.366345486364</v>
       </c>
-      <c r="AF7">
+      <c r="AO7">
         <v>0.104102278</v>
       </c>
-      <c r="AG7">
+      <c r="AP7">
+        <v>489.36619204102</v>
+      </c>
+      <c r="AQ7">
+        <v>1.75</v>
+      </c>
+      <c r="AR7">
+        <v>20713303.21785505</v>
+      </c>
+      <c r="AS7">
+        <v>43290803.72531705</v>
+      </c>
+      <c r="AT7">
+        <v>14430267.90843901</v>
+      </c>
+      <c r="AU7">
+        <v>3.8</v>
+      </c>
+      <c r="AV7">
         <v>15155670.96751039</v>
       </c>
-      <c r="AH7">
-        <v>20713303.21785505</v>
-      </c>
-      <c r="AI7">
-        <v>43290803.72531705</v>
-      </c>
-      <c r="AJ7">
-        <v>14430267.90843901</v>
-      </c>
-      <c r="AK7">
+      <c r="AW7">
         <v>29585938.8759494</v>
       </c>
-      <c r="AM7">
+      <c r="AY7">
         <v>0.104102278</v>
       </c>
-      <c r="AN7">
+      <c r="AZ7">
+        <v>506625</v>
+      </c>
+      <c r="BA7">
+        <v>52009.6943104379</v>
+      </c>
+      <c r="BB7">
+        <v>32708.01564043051</v>
+      </c>
+      <c r="BC7">
+        <v>68359.75268849975</v>
+      </c>
+      <c r="BD7">
+        <v>22786.58422949992</v>
+      </c>
+      <c r="BE7">
+        <v>0.035</v>
+      </c>
+      <c r="BF7">
         <v>19895.08555994691</v>
       </c>
-      <c r="AO7">
-        <v>32708.01564043051</v>
-      </c>
-      <c r="AP7">
-        <v>68359.75268849975</v>
-      </c>
-      <c r="AQ7">
-        <v>22786.58422949992</v>
-      </c>
-      <c r="AR7">
+      <c r="BG7">
         <v>42681.66978944682</v>
       </c>
-      <c r="AT7">
+      <c r="BI7">
         <v>0.104102278</v>
       </c>
-      <c r="AU7">
+      <c r="BJ7">
         <v>0.485718543295191</v>
       </c>
-      <c r="AV7">
+      <c r="BK7">
         <v>3514471.919753129</v>
       </c>
-      <c r="AW7">
+      <c r="BL7">
         <v>135857.2503807503</v>
       </c>
-      <c r="AX7">
+      <c r="BM7">
         <v>29585938.8759494</v>
       </c>
-      <c r="AY7">
+      <c r="BN7">
         <v>42681.66978944682</v>
       </c>
-      <c r="AZ7">
+      <c r="BO7">
         <v>6288.366345486364</v>
       </c>
-      <c r="BA7">
+      <c r="BP7">
         <v>68547145.58265145</v>
       </c>
-      <c r="BB7">
+      <c r="BQ7">
         <v>35261907.50043324</v>
       </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:69">
       <c r="B8">
         <v>0.113763733</v>
       </c>
@@ -1533,112 +1887,157 @@
         <v>61.7749255585</v>
       </c>
       <c r="O8">
+        <v>2.3625</v>
+      </c>
+      <c r="P8">
         <v>562673.0339160083</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>1179362.679087953</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>393120.8930293178</v>
       </c>
-      <c r="R8">
+      <c r="S8">
+        <v>52.42131153354504</v>
+      </c>
+      <c r="T8">
         <v>41546.51045591113</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>3527125.627246622</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>3920246.52027594</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>0.113763733</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
+        <v>113.565</v>
+      </c>
+      <c r="Z8">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA8">
+        <v>414.0076231170326</v>
+      </c>
+      <c r="AB8">
+        <v>3.7935</v>
+      </c>
+      <c r="AC8">
         <v>199036.5572787488</v>
       </c>
-      <c r="X8">
+      <c r="AD8">
         <v>415986.404712585</v>
       </c>
-      <c r="Y8">
+      <c r="AE8">
         <v>138662.134904195</v>
       </c>
-      <c r="Z8">
+      <c r="AF8">
         <v>138662.134904195</v>
       </c>
-      <c r="AB8">
+      <c r="AH8">
         <v>0.113763733</v>
       </c>
-      <c r="AC8">
+      <c r="AI8">
+        <v>-2.2797988</v>
+      </c>
+      <c r="AJ8">
+        <v>20</v>
+      </c>
+      <c r="AK8">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL8">
         <v>799163.696137169</v>
       </c>
-      <c r="AD8">
+      <c r="AM8">
         <v>6489.209212633812</v>
       </c>
-      <c r="AF8">
+      <c r="AO8">
         <v>0.113763733</v>
       </c>
-      <c r="AG8">
+      <c r="AP8">
+        <v>479.70590735018</v>
+      </c>
+      <c r="AQ8">
+        <v>1.75</v>
+      </c>
+      <c r="AR8">
+        <v>20365229.14725952</v>
+      </c>
+      <c r="AS8">
+        <v>42563328.9177724</v>
+      </c>
+      <c r="AT8">
+        <v>14187776.30592413</v>
+      </c>
+      <c r="AU8">
+        <v>3.8</v>
+      </c>
+      <c r="AV8">
         <v>14856491.95063508</v>
       </c>
-      <c r="AH8">
-        <v>20365229.14725952</v>
-      </c>
-      <c r="AI8">
-        <v>42563328.9177724</v>
-      </c>
-      <c r="AJ8">
-        <v>14187776.30592413</v>
-      </c>
-      <c r="AK8">
+      <c r="AW8">
         <v>29044268.25655921</v>
       </c>
-      <c r="AM8">
+      <c r="AY8">
         <v>0.113763733</v>
       </c>
-      <c r="AN8">
+      <c r="AZ8">
+        <v>506625</v>
+      </c>
+      <c r="BA8">
+        <v>51001.95065342136</v>
+      </c>
+      <c r="BB8">
+        <v>32309.94555088699</v>
+      </c>
+      <c r="BC8">
+        <v>67527.78620135381</v>
+      </c>
+      <c r="BD8">
+        <v>22509.26206711794</v>
+      </c>
+      <c r="BE8">
+        <v>0.035</v>
+      </c>
+      <c r="BF8">
         <v>19509.59692086421</v>
       </c>
-      <c r="AO8">
-        <v>32309.94555088699</v>
-      </c>
-      <c r="AP8">
-        <v>67527.78620135381</v>
-      </c>
-      <c r="AQ8">
-        <v>22509.26206711794</v>
-      </c>
-      <c r="AR8">
+      <c r="BG8">
         <v>42018.85898798215</v>
       </c>
-      <c r="AT8">
+      <c r="BI8">
         <v>0.113763733</v>
       </c>
-      <c r="AU8">
+      <c r="BJ8">
         <v>0.4533839147305481</v>
       </c>
-      <c r="AV8">
+      <c r="BK8">
         <v>3920246.52027594</v>
       </c>
-      <c r="AW8">
+      <c r="BL8">
         <v>138662.134904195</v>
       </c>
-      <c r="AX8">
+      <c r="BM8">
         <v>29044268.25655921</v>
       </c>
-      <c r="AY8">
+      <c r="BN8">
         <v>42018.85898798215</v>
       </c>
-      <c r="AZ8">
+      <c r="BO8">
         <v>6489.209212633812</v>
       </c>
-      <c r="BA8">
+      <c r="BP8">
         <v>67901886.16025992</v>
       </c>
-      <c r="BB8">
+      <c r="BQ8">
         <v>34750201.18031996</v>
       </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:69">
       <c r="B9">
         <v>0.123388217</v>
       </c>
@@ -1676,112 +2075,157 @@
         <v>64.16004916470001</v>
       </c>
       <c r="O9">
+        <v>2.3625</v>
+      </c>
+      <c r="P9">
         <v>603933.7391279845</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>1265845.117212255</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>421948.3724040851</v>
       </c>
-      <c r="R9">
+      <c r="S9">
+        <v>58.73071044890207</v>
+      </c>
+      <c r="T9">
         <v>46547.02456627735</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>3951648.439741254</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>4373596.812145339</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>0.123388217</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
+        <v>113.565</v>
+      </c>
+      <c r="Z9">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA9">
+        <v>427.8427997877743</v>
+      </c>
+      <c r="AB9">
+        <v>3.7935</v>
+      </c>
+      <c r="AC9">
         <v>203335.0184384373</v>
       </c>
-      <c r="X9">
+      <c r="AD9">
         <v>424970.188536334</v>
       </c>
-      <c r="Y9">
+      <c r="AE9">
         <v>141656.7295121113</v>
       </c>
-      <c r="Z9">
+      <c r="AF9">
         <v>141656.7295121113</v>
       </c>
-      <c r="AB9">
+      <c r="AH9">
         <v>0.123388217</v>
       </c>
-      <c r="AC9">
+      <c r="AI9">
+        <v>-2.3559844</v>
+      </c>
+      <c r="AJ9">
+        <v>20</v>
+      </c>
+      <c r="AK9">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL9">
         <v>825869.8974424894</v>
       </c>
-      <c r="AD9">
+      <c r="AM9">
         <v>6706.063567233014</v>
       </c>
-      <c r="AF9">
+      <c r="AO9">
         <v>0.123388217</v>
       </c>
-      <c r="AG9">
+      <c r="AP9">
+        <v>474.8090030422144</v>
+      </c>
+      <c r="AQ9">
+        <v>1.75</v>
+      </c>
+      <c r="AR9">
+        <v>20188385.90934955</v>
+      </c>
+      <c r="AS9">
+        <v>42193726.55054055</v>
+      </c>
+      <c r="AT9">
+        <v>14064575.51684685</v>
+      </c>
+      <c r="AU9">
+        <v>3.8</v>
+      </c>
+      <c r="AV9">
         <v>14704834.82421738</v>
       </c>
-      <c r="AH9">
-        <v>20188385.90934955</v>
-      </c>
-      <c r="AI9">
-        <v>42193726.55054055</v>
-      </c>
-      <c r="AJ9">
-        <v>14064575.51684685</v>
-      </c>
-      <c r="AK9">
+      <c r="AW9">
         <v>28769410.34106423</v>
       </c>
-      <c r="AM9">
+      <c r="AY9">
         <v>0.123388217</v>
       </c>
-      <c r="AN9">
+      <c r="AZ9">
+        <v>506625</v>
+      </c>
+      <c r="BA9">
+        <v>50500.78909047878</v>
+      </c>
+      <c r="BB9">
+        <v>32110.81047680112</v>
+      </c>
+      <c r="BC9">
+        <v>67111.59389651434</v>
+      </c>
+      <c r="BD9">
+        <v>22370.53129883811</v>
+      </c>
+      <c r="BE9">
+        <v>0.035</v>
+      </c>
+      <c r="BF9">
         <v>19317.88934968362</v>
       </c>
-      <c r="AO9">
-        <v>32110.81047680112</v>
-      </c>
-      <c r="AP9">
-        <v>67111.59389651434</v>
-      </c>
-      <c r="AQ9">
-        <v>22370.53129883811</v>
-      </c>
-      <c r="AR9">
+      <c r="BG9">
         <v>41688.42064852173</v>
       </c>
-      <c r="AT9">
+      <c r="BI9">
         <v>0.123388217</v>
       </c>
-      <c r="AU9">
+      <c r="BJ9">
         <v>0.4222956188080872</v>
       </c>
-      <c r="AV9">
+      <c r="BK9">
         <v>4373596.812145339</v>
       </c>
-      <c r="AW9">
+      <c r="BL9">
         <v>141656.7295121113</v>
       </c>
-      <c r="AX9">
+      <c r="BM9">
         <v>28769410.34106423</v>
       </c>
-      <c r="AY9">
+      <c r="BN9">
         <v>41688.42064852173</v>
       </c>
-      <c r="AZ9">
+      <c r="BO9">
         <v>6706.063567233014</v>
       </c>
-      <c r="BA9">
+      <c r="BP9">
         <v>67203115.96163739</v>
       </c>
-      <c r="BB9">
+      <c r="BQ9">
         <v>33870057.59469996</v>
       </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:69">
       <c r="B10">
         <v>0.132895008</v>
       </c>
@@ -1819,112 +2263,157 @@
         <v>66.63726223840001</v>
       </c>
       <c r="O10">
+        <v>2.3625</v>
+      </c>
+      <c r="P10">
         <v>648220.0854900844</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>1358669.299187217</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>452889.7663957389</v>
       </c>
-      <c r="R10">
+      <c r="S10">
+        <v>65.79950524809466</v>
+      </c>
+      <c r="T10">
         <v>52149.39788437743</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>4427266.591225793</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>4880156.357621532</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>0.132895008</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
+        <v>113.565</v>
+      </c>
+      <c r="Z10">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA10">
+        <v>442.8496469779825</v>
+      </c>
+      <c r="AB10">
+        <v>3.7935</v>
+      </c>
+      <c r="AC10">
         <v>207942.8674074438</v>
       </c>
-      <c r="X10">
+      <c r="AD10">
         <v>434600.5928815574</v>
       </c>
-      <c r="Y10">
+      <c r="AE10">
         <v>144866.8642938525</v>
       </c>
-      <c r="Z10">
+      <c r="AF10">
         <v>144866.8642938525</v>
       </c>
-      <c r="AB10">
+      <c r="AH10">
         <v>0.132895008</v>
       </c>
-      <c r="AC10">
+      <c r="AI10">
+        <v>-2.43862199</v>
+      </c>
+      <c r="AJ10">
+        <v>20</v>
+      </c>
+      <c r="AK10">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL10">
         <v>854837.7878827635</v>
       </c>
-      <c r="AD10">
+      <c r="AM10">
         <v>6941.28283760804</v>
       </c>
-      <c r="AF10">
+      <c r="AO10">
         <v>0.132895008</v>
       </c>
-      <c r="AG10">
+      <c r="AP10">
+        <v>474.2715054366744</v>
+      </c>
+      <c r="AQ10">
+        <v>1.75</v>
+      </c>
+      <c r="AR10">
+        <v>20168958.49516479</v>
+      </c>
+      <c r="AS10">
+        <v>42153123.25489441</v>
+      </c>
+      <c r="AT10">
+        <v>14051041.0849648</v>
+      </c>
+      <c r="AU10">
+        <v>3.8</v>
+      </c>
+      <c r="AV10">
         <v>14688188.52337381</v>
       </c>
-      <c r="AH10">
-        <v>20168958.49516479</v>
-      </c>
-      <c r="AI10">
-        <v>42153123.25489441</v>
-      </c>
-      <c r="AJ10">
-        <v>14051041.0849648</v>
-      </c>
-      <c r="AK10">
+      <c r="AW10">
         <v>28739229.60833861</v>
       </c>
-      <c r="AM10">
+      <c r="AY10">
         <v>0.132895008</v>
       </c>
-      <c r="AN10">
+      <c r="AZ10">
+        <v>506625</v>
+      </c>
+      <c r="BA10">
+        <v>50463.48229308313</v>
+      </c>
+      <c r="BB10">
+        <v>32095.95519103117</v>
+      </c>
+      <c r="BC10">
+        <v>67080.54634925515</v>
+      </c>
+      <c r="BD10">
+        <v>22360.18211641838</v>
+      </c>
+      <c r="BE10">
+        <v>0.035</v>
+      </c>
+      <c r="BF10">
         <v>19303.61851160247</v>
       </c>
-      <c r="AO10">
-        <v>32095.95519103117</v>
-      </c>
-      <c r="AP10">
-        <v>67080.54634925515</v>
-      </c>
-      <c r="AQ10">
-        <v>22360.18211641838</v>
-      </c>
-      <c r="AR10">
+      <c r="BG10">
         <v>41663.80062802085</v>
       </c>
-      <c r="AT10">
+      <c r="BI10">
         <v>0.132895008</v>
       </c>
-      <c r="AU10">
+      <c r="BJ10">
         <v>0.3924917117980959</v>
       </c>
-      <c r="AV10">
+      <c r="BK10">
         <v>4880156.357621532</v>
       </c>
-      <c r="AW10">
+      <c r="BL10">
         <v>144866.8642938525</v>
       </c>
-      <c r="AX10">
+      <c r="BM10">
         <v>28739229.60833861</v>
       </c>
-      <c r="AY10">
+      <c r="BN10">
         <v>41663.80062802085</v>
       </c>
-      <c r="AZ10">
+      <c r="BO10">
         <v>6941.28283760804</v>
       </c>
-      <c r="BA10">
+      <c r="BP10">
         <v>66439809.24250262</v>
       </c>
-      <c r="BB10">
+      <c r="BQ10">
         <v>32626951.32878301</v>
       </c>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:69">
       <c r="B11">
         <v>0.142470745</v>
       </c>
@@ -1962,112 +2451,157 @@
         <v>69.21012007120001</v>
       </c>
       <c r="O11">
+        <v>2.3625</v>
+      </c>
+      <c r="P11">
         <v>695753.9376570453</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>1458300.253329167</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>486100.0844430557</v>
       </c>
-      <c r="R11">
+      <c r="S11">
+        <v>73.71909555008634</v>
+      </c>
+      <c r="T11">
         <v>58426.06917822093</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>4960129.831276048</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>5446229.915719104</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>0.142470745</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
+        <v>113.565</v>
+      </c>
+      <c r="Z11">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA11">
+        <v>458.9864406585509</v>
+      </c>
+      <c r="AB11">
+        <v>3.7935</v>
+      </c>
+      <c r="AC11">
         <v>212837.1024327023</v>
       </c>
-      <c r="X11">
+      <c r="AD11">
         <v>444829.5440843479</v>
       </c>
-      <c r="Y11">
+      <c r="AE11">
         <v>148276.5146947826</v>
       </c>
-      <c r="Z11">
+      <c r="AF11">
         <v>148276.5146947826</v>
       </c>
-      <c r="AB11">
+      <c r="AH11">
         <v>0.142470745</v>
       </c>
-      <c r="AC11">
+      <c r="AI11">
+        <v>-2.52748181</v>
+      </c>
+      <c r="AJ11">
+        <v>20</v>
+      </c>
+      <c r="AK11">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL11">
         <v>885986.8270827505</v>
       </c>
-      <c r="AD11">
+      <c r="AM11">
         <v>7194.213035911934</v>
       </c>
-      <c r="AF11">
+      <c r="AO11">
         <v>0.142470745</v>
       </c>
-      <c r="AG11">
+      <c r="AP11">
+        <v>476.8375655812552</v>
+      </c>
+      <c r="AQ11">
+        <v>1.75</v>
+      </c>
+      <c r="AR11">
+        <v>20261676.97300717</v>
+      </c>
+      <c r="AS11">
+        <v>42346904.87358499</v>
+      </c>
+      <c r="AT11">
+        <v>14115634.95786166</v>
+      </c>
+      <c r="AU11">
+        <v>3.8</v>
+      </c>
+      <c r="AV11">
         <v>14767659.40605147</v>
       </c>
-      <c r="AH11">
-        <v>20261676.97300717</v>
-      </c>
-      <c r="AI11">
-        <v>42346904.87358499</v>
-      </c>
-      <c r="AJ11">
-        <v>14115634.95786166</v>
-      </c>
-      <c r="AK11">
+      <c r="AW11">
         <v>28883294.36391313</v>
       </c>
-      <c r="AM11">
+      <c r="AY11">
         <v>0.142470745</v>
       </c>
-      <c r="AN11">
+      <c r="AZ11">
+        <v>506625</v>
+      </c>
+      <c r="BA11">
+        <v>50756.92565488149</v>
+      </c>
+      <c r="BB11">
+        <v>32212.68385628846</v>
+      </c>
+      <c r="BC11">
+        <v>67324.50925964289</v>
+      </c>
+      <c r="BD11">
+        <v>22441.50308654763</v>
+      </c>
+      <c r="BE11">
+        <v>0.035</v>
+      </c>
+      <c r="BF11">
         <v>19415.8683693911</v>
       </c>
-      <c r="AO11">
-        <v>32212.68385628846</v>
-      </c>
-      <c r="AP11">
-        <v>67324.50925964289</v>
-      </c>
-      <c r="AQ11">
-        <v>22441.50308654763</v>
-      </c>
-      <c r="AR11">
+      <c r="BG11">
         <v>41857.37145593873</v>
       </c>
-      <c r="AT11">
+      <c r="BI11">
         <v>0.142470745</v>
       </c>
-      <c r="AU11">
+      <c r="BJ11">
         <v>0.3641047563535028</v>
       </c>
-      <c r="AV11">
+      <c r="BK11">
         <v>5446229.915719104</v>
       </c>
-      <c r="AW11">
+      <c r="BL11">
         <v>148276.5146947826</v>
       </c>
-      <c r="AX11">
+      <c r="BM11">
         <v>28883294.36391313</v>
       </c>
-      <c r="AY11">
+      <c r="BN11">
         <v>41857.37145593873</v>
       </c>
-      <c r="AZ11">
+      <c r="BO11">
         <v>7194.213035911934</v>
       </c>
-      <c r="BA11">
+      <c r="BP11">
         <v>65615088.97398724</v>
       </c>
-      <c r="BB11">
+      <c r="BQ11">
         <v>31088236.59516837</v>
       </c>
     </row>
-    <row r="12" spans="1:54">
+    <row r="12" spans="1:69">
       <c r="B12">
         <v>0.152229117</v>
       </c>
@@ -2105,112 +2639,157 @@
         <v>71.8823157567</v>
       </c>
       <c r="O12">
+        <v>2.3625</v>
+      </c>
+      <c r="P12">
         <v>746773.4394013332</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1565237.128985194</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>521745.7096617315</v>
       </c>
-      <c r="R12">
+      <c r="S12">
+        <v>82.59188341362317</v>
+      </c>
+      <c r="T12">
         <v>65458.19719946705</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>5557128.199746422</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>6078873.909408153</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>0.152229117</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
+        <v>113.565</v>
+      </c>
+      <c r="Z12">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA12">
+        <v>476.3121312748505</v>
+      </c>
+      <c r="AB12">
+        <v>3.7935</v>
+      </c>
+      <c r="AC12">
         <v>218025.353498578</v>
       </c>
-      <c r="X12">
+      <c r="AD12">
         <v>455672.9888120281</v>
       </c>
-      <c r="Y12">
+      <c r="AE12">
         <v>151890.996270676</v>
       </c>
-      <c r="Z12">
+      <c r="AF12">
         <v>151890.996270676</v>
       </c>
-      <c r="AB12">
+      <c r="AH12">
         <v>0.152229117</v>
       </c>
-      <c r="AC12">
+      <c r="AI12">
+        <v>-2.62288848</v>
+      </c>
+      <c r="AJ12">
+        <v>20</v>
+      </c>
+      <c r="AK12">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL12">
         <v>919430.8077679492</v>
       </c>
-      <c r="AD12">
+      <c r="AM12">
         <v>7465.778159075747</v>
       </c>
-      <c r="AF12">
+      <c r="AO12">
         <v>0.152229117</v>
       </c>
-      <c r="AG12">
+      <c r="AP12">
+        <v>481.8584261692656</v>
+      </c>
+      <c r="AQ12">
+        <v>1.75</v>
+      </c>
+      <c r="AR12">
+        <v>20442877.84692661</v>
+      </c>
+      <c r="AS12">
+        <v>42725614.70007662</v>
+      </c>
+      <c r="AT12">
+        <v>14241871.56669221</v>
+      </c>
+      <c r="AU12">
+        <v>3.8</v>
+      </c>
+      <c r="AV12">
         <v>14923155.45846215</v>
       </c>
-      <c r="AH12">
-        <v>20442877.84692661</v>
-      </c>
-      <c r="AI12">
-        <v>42725614.70007662</v>
-      </c>
-      <c r="AJ12">
-        <v>14241871.56669221</v>
-      </c>
-      <c r="AK12">
+      <c r="AW12">
         <v>29165027.02515436</v>
       </c>
-      <c r="AM12">
+      <c r="AY12">
         <v>0.152229117</v>
       </c>
-      <c r="AN12">
+      <c r="AZ12">
+        <v>506625</v>
+      </c>
+      <c r="BA12">
+        <v>51312.40401608592</v>
+      </c>
+      <c r="BB12">
+        <v>32432.9107554141</v>
+      </c>
+      <c r="BC12">
+        <v>67784.78347881546</v>
+      </c>
+      <c r="BD12">
+        <v>22594.92782627182</v>
+      </c>
+      <c r="BE12">
+        <v>0.035</v>
+      </c>
+      <c r="BF12">
         <v>19628.35355449713</v>
       </c>
-      <c r="AO12">
-        <v>32432.9107554141</v>
-      </c>
-      <c r="AP12">
-        <v>67784.78347881546</v>
-      </c>
-      <c r="AQ12">
-        <v>22594.92782627182</v>
-      </c>
-      <c r="AR12">
+      <c r="BG12">
         <v>42223.28138076895</v>
       </c>
-      <c r="AT12">
+      <c r="BI12">
         <v>0.152229117</v>
       </c>
-      <c r="AU12">
+      <c r="BJ12">
         <v>0.3371796816658243</v>
       </c>
-      <c r="AV12">
+      <c r="BK12">
         <v>6078873.909408153</v>
       </c>
-      <c r="AW12">
+      <c r="BL12">
         <v>151890.996270676</v>
       </c>
-      <c r="AX12">
+      <c r="BM12">
         <v>29165027.02515436</v>
       </c>
-      <c r="AY12">
+      <c r="BN12">
         <v>42223.28138076895</v>
       </c>
-      <c r="AZ12">
+      <c r="BO12">
         <v>7465.778159075747</v>
       </c>
-      <c r="BA12">
+      <c r="BP12">
         <v>64723872.94863489</v>
       </c>
-      <c r="BB12">
+      <c r="BQ12">
         <v>29278391.95826186</v>
       </c>
     </row>
-    <row r="13" spans="1:54">
+    <row r="13" spans="1:69">
       <c r="B13">
         <v>0.162177679</v>
       </c>
@@ -2248,112 +2827,157 @@
         <v>74.6576847839</v>
       </c>
       <c r="O13">
+        <v>2.3625</v>
+      </c>
+      <c r="P13">
         <v>801534.1941229979</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>1680015.670881804</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>560005.2236272679</v>
       </c>
-      <c r="R13">
+      <c r="S13">
+        <v>92.53259542690444</v>
+      </c>
+      <c r="T13">
         <v>73336.70850559312</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>6225980.982506082</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>6785986.206133351</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>0.162177679</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
+        <v>113.565</v>
+      </c>
+      <c r="Z13">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA13">
+        <v>494.8917546318248</v>
+      </c>
+      <c r="AB13">
+        <v>3.7935</v>
+      </c>
+      <c r="AC13">
         <v>223516.2349418507</v>
       </c>
-      <c r="X13">
+      <c r="AD13">
         <v>467148.9310284679</v>
       </c>
-      <c r="Y13">
+      <c r="AE13">
         <v>155716.3103428226</v>
       </c>
-      <c r="Z13">
+      <c r="AF13">
         <v>155716.3103428226</v>
       </c>
-      <c r="AB13">
+      <c r="AH13">
         <v>0.162177679</v>
       </c>
-      <c r="AC13">
+      <c r="AI13">
+        <v>-2.72520013</v>
+      </c>
+      <c r="AJ13">
+        <v>20</v>
+      </c>
+      <c r="AK13">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL13">
         <v>955295.2693037185</v>
       </c>
-      <c r="AD13">
+      <c r="AM13">
         <v>7756.997586746193</v>
       </c>
-      <c r="AF13">
+      <c r="AO13">
         <v>0.162177679</v>
       </c>
-      <c r="AG13">
+      <c r="AP13">
+        <v>489.169447956364</v>
+      </c>
+      <c r="AQ13">
+        <v>1.75</v>
+      </c>
+      <c r="AR13">
+        <v>20706224.58958099</v>
+      </c>
+      <c r="AS13">
+        <v>43276009.39222427</v>
+      </c>
+      <c r="AT13">
+        <v>14425336.46407476</v>
+      </c>
+      <c r="AU13">
+        <v>3.8</v>
+      </c>
+      <c r="AV13">
         <v>15149577.80320859</v>
       </c>
-      <c r="AH13">
-        <v>20706224.58958099</v>
-      </c>
-      <c r="AI13">
-        <v>43276009.39222427</v>
-      </c>
-      <c r="AJ13">
-        <v>14425336.46407476</v>
-      </c>
-      <c r="AK13">
+      <c r="AW13">
         <v>29574914.26728335</v>
       </c>
-      <c r="AM13">
+      <c r="AY13">
         <v>0.162177679</v>
       </c>
-      <c r="AN13">
+      <c r="AZ13">
+        <v>506625</v>
+      </c>
+      <c r="BA13">
+        <v>52112.57917468224</v>
+      </c>
+      <c r="BB13">
+        <v>32748.48200541536</v>
+      </c>
+      <c r="BC13">
+        <v>68444.3273913181</v>
+      </c>
+      <c r="BD13">
+        <v>22814.77579710603</v>
+      </c>
+      <c r="BE13">
+        <v>0.035</v>
+      </c>
+      <c r="BF13">
         <v>19934.4417454447</v>
       </c>
-      <c r="AO13">
-        <v>32748.48200541536</v>
-      </c>
-      <c r="AP13">
-        <v>68444.3273913181</v>
-      </c>
-      <c r="AQ13">
-        <v>22814.77579710603</v>
-      </c>
-      <c r="AR13">
+      <c r="BG13">
         <v>42749.21754255073</v>
       </c>
-      <c r="AT13">
+      <c r="BI13">
         <v>0.162177679</v>
       </c>
-      <c r="AU13">
+      <c r="BJ13">
         <v>0.3117356013137871</v>
       </c>
-      <c r="AV13">
+      <c r="BK13">
         <v>6785986.206133351</v>
       </c>
-      <c r="AW13">
+      <c r="BL13">
         <v>155716.3103428226</v>
       </c>
-      <c r="AX13">
+      <c r="BM13">
         <v>29574914.26728335</v>
       </c>
-      <c r="AY13">
+      <c r="BN13">
         <v>42749.21754255073</v>
       </c>
-      <c r="AZ13">
+      <c r="BO13">
         <v>7756.997586746193</v>
       </c>
-      <c r="BA13">
+      <c r="BP13">
         <v>63758231.98594004</v>
       </c>
-      <c r="BB13">
+      <c r="BQ13">
         <v>27191108.98705122</v>
       </c>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:69">
       <c r="B14">
         <v>0.172339283</v>
       </c>
@@ -2391,112 +3015,157 @@
         <v>77.5402102868</v>
       </c>
       <c r="O14">
+        <v>2.3625</v>
+      </c>
+      <c r="P14">
         <v>860310.5395266635</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>1803210.890847887</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>601070.2969492956</v>
       </c>
-      <c r="R14">
+      <c r="S14">
+        <v>103.6697648893359</v>
+      </c>
+      <c r="T14">
         <v>82163.47216304314</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>6975336.438841683</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>7576406.735790978</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>0.172339283</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
+        <v>113.565</v>
+      </c>
+      <c r="Z14">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA14">
+        <v>514.7805474892804</v>
+      </c>
+      <c r="AB14">
+        <v>3.7935</v>
+      </c>
+      <c r="AC14">
         <v>229314.657066082</v>
       </c>
-      <c r="X14">
+      <c r="AD14">
         <v>479267.6332681114</v>
       </c>
-      <c r="Y14">
+      <c r="AE14">
         <v>159755.8777560371</v>
       </c>
-      <c r="Z14">
+      <c r="AF14">
         <v>159755.8777560371</v>
       </c>
-      <c r="AB14">
+      <c r="AH14">
         <v>0.172339283</v>
       </c>
-      <c r="AC14">
+      <c r="AI14">
+        <v>-2.83472093</v>
+      </c>
+      <c r="AJ14">
+        <v>20</v>
+      </c>
+      <c r="AK14">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL14">
         <v>993686.8358454235</v>
       </c>
-      <c r="AD14">
+      <c r="AM14">
         <v>8068.737107064838</v>
       </c>
-      <c r="AF14">
+      <c r="AO14">
         <v>0.172339283</v>
       </c>
-      <c r="AG14">
+      <c r="AP14">
+        <v>498.604531301604</v>
+      </c>
+      <c r="AQ14">
+        <v>1.75</v>
+      </c>
+      <c r="AR14">
+        <v>21045210.90182678</v>
+      </c>
+      <c r="AS14">
+        <v>43984490.78481796</v>
+      </c>
+      <c r="AT14">
+        <v>14661496.92827265</v>
+      </c>
+      <c r="AU14">
+        <v>3.8</v>
+      </c>
+      <c r="AV14">
         <v>15441782.33441067</v>
       </c>
-      <c r="AH14">
-        <v>21045210.90182678</v>
-      </c>
-      <c r="AI14">
-        <v>43984490.78481796</v>
-      </c>
-      <c r="AJ14">
-        <v>14661496.92827265</v>
-      </c>
-      <c r="AK14">
+      <c r="AW14">
         <v>30103279.26268332</v>
       </c>
-      <c r="AM14">
+      <c r="AY14">
         <v>0.172339283</v>
       </c>
-      <c r="AN14">
+      <c r="AZ14">
+        <v>506625</v>
+      </c>
+      <c r="BA14">
+        <v>53139.90897701435</v>
+      </c>
+      <c r="BB14">
+        <v>33150.810621198</v>
+      </c>
+      <c r="BC14">
+        <v>69285.19419830383</v>
+      </c>
+      <c r="BD14">
+        <v>23095.06473276794</v>
+      </c>
+      <c r="BE14">
+        <v>0.035</v>
+      </c>
+      <c r="BF14">
         <v>20327.42260385322</v>
       </c>
-      <c r="AO14">
-        <v>33150.810621198</v>
-      </c>
-      <c r="AP14">
-        <v>69285.19419830383</v>
-      </c>
-      <c r="AQ14">
-        <v>23095.06473276794</v>
-      </c>
-      <c r="AR14">
+      <c r="BG14">
         <v>43422.48733662115</v>
       </c>
-      <c r="AT14">
+      <c r="BI14">
         <v>0.172339283</v>
       </c>
-      <c r="AU14">
+      <c r="BJ14">
         <v>0.2877742964092611</v>
       </c>
-      <c r="AV14">
+      <c r="BK14">
         <v>7576406.735790978</v>
       </c>
-      <c r="AW14">
+      <c r="BL14">
         <v>159755.8777560371</v>
       </c>
-      <c r="AX14">
+      <c r="BM14">
         <v>30103279.26268332</v>
       </c>
-      <c r="AY14">
+      <c r="BN14">
         <v>43422.48733662115</v>
       </c>
-      <c r="AZ14">
+      <c r="BO14">
         <v>8068.737107064838</v>
       </c>
-      <c r="BA14">
+      <c r="BP14">
         <v>62714564.30565364</v>
       </c>
-      <c r="BB14">
+      <c r="BQ14">
         <v>24823631.20497962</v>
       </c>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:69">
       <c r="B15">
         <v>0.182900778</v>
       </c>
@@ -2534,112 +3203,157 @@
         <v>80.53402993450001</v>
       </c>
       <c r="O15">
+        <v>2.3625</v>
+      </c>
+      <c r="P15">
         <v>923396.9456641118</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1935439.998111978</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>645146.6660373261</v>
       </c>
-      <c r="R15">
+      <c r="S15">
+        <v>116.1473981762563</v>
+      </c>
+      <c r="T15">
         <v>92052.62042459197</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>7814883.921462756</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>8460030.587500082</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>0.182900778</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
+        <v>113.565</v>
+      </c>
+      <c r="Z15">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA15">
+        <v>535.9292712797912</v>
+      </c>
+      <c r="AB15">
+        <v>3.7935</v>
+      </c>
+      <c r="AC15">
         <v>235395.0316233477</v>
       </c>
-      <c r="X15">
+      <c r="AD15">
         <v>491975.6160927966</v>
       </c>
-      <c r="Y15">
+      <c r="AE15">
         <v>163991.8720309322</v>
       </c>
-      <c r="Z15">
+      <c r="AF15">
         <v>163991.8720309322</v>
       </c>
-      <c r="AB15">
+      <c r="AH15">
         <v>0.182900778</v>
       </c>
-      <c r="AC15">
+      <c r="AI15">
+        <v>-2.95117974</v>
+      </c>
+      <c r="AJ15">
+        <v>20</v>
+      </c>
+      <c r="AK15">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL15">
         <v>1034510.461617722</v>
       </c>
-      <c r="AD15">
+      <c r="AM15">
         <v>8400.224948335906</v>
       </c>
-      <c r="AF15">
+      <c r="AO15">
         <v>0.182900778</v>
       </c>
-      <c r="AG15">
+      <c r="AP15">
+        <v>509.5325767310744</v>
+      </c>
+      <c r="AQ15">
+        <v>1.75</v>
+      </c>
+      <c r="AR15">
+        <v>21436637.1438941</v>
+      </c>
+      <c r="AS15">
+        <v>44802571.63073866</v>
+      </c>
+      <c r="AT15">
+        <v>14934190.54357955</v>
+      </c>
+      <c r="AU15">
+        <v>3.8</v>
+      </c>
+      <c r="AV15">
         <v>15780223.90136137</v>
       </c>
-      <c r="AH15">
-        <v>21436637.1438941</v>
-      </c>
-      <c r="AI15">
-        <v>44802571.63073866</v>
-      </c>
-      <c r="AJ15">
-        <v>14934190.54357955</v>
-      </c>
-      <c r="AK15">
+      <c r="AW15">
         <v>30714414.44494092</v>
       </c>
-      <c r="AM15">
+      <c r="AY15">
         <v>0.182900778</v>
       </c>
-      <c r="AN15">
+      <c r="AZ15">
+        <v>506625</v>
+      </c>
+      <c r="BA15">
+        <v>54327.54039844521</v>
+      </c>
+      <c r="BB15">
+        <v>33612.06019299422</v>
+      </c>
+      <c r="BC15">
+        <v>70249.20580335791</v>
+      </c>
+      <c r="BD15">
+        <v>23416.40193445264</v>
+      </c>
+      <c r="BE15">
+        <v>0.035</v>
+      </c>
+      <c r="BF15">
         <v>20781.72307718452</v>
       </c>
-      <c r="AO15">
-        <v>33612.06019299422</v>
-      </c>
-      <c r="AP15">
-        <v>70249.20580335791</v>
-      </c>
-      <c r="AQ15">
-        <v>23416.40193445264</v>
-      </c>
-      <c r="AR15">
+      <c r="BG15">
         <v>44198.12501163715</v>
       </c>
-      <c r="AT15">
+      <c r="BI15">
         <v>0.182900778</v>
       </c>
-      <c r="AU15">
+      <c r="BJ15">
         <v>0.265317367856658</v>
       </c>
-      <c r="AV15">
+      <c r="BK15">
         <v>8460030.587500082</v>
       </c>
-      <c r="AW15">
+      <c r="BL15">
         <v>163991.8720309322</v>
       </c>
-      <c r="AX15">
+      <c r="BM15">
         <v>30714414.44494092</v>
       </c>
-      <c r="AY15">
+      <c r="BN15">
         <v>44198.12501163715</v>
       </c>
-      <c r="AZ15">
+      <c r="BO15">
         <v>8400.224948335906</v>
       </c>
-      <c r="BA15">
+      <c r="BP15">
         <v>61598406.38291536</v>
       </c>
-      <c r="BB15">
+      <c r="BQ15">
         <v>22207371.12848346</v>
       </c>
     </row>
-    <row r="16" spans="1:54">
+    <row r="16" spans="1:69">
       <c r="B16">
         <v>0.193795897</v>
       </c>
@@ -2677,112 +3391,157 @@
         <v>83.64344052460001</v>
       </c>
       <c r="O16">
+        <v>2.3625</v>
+      </c>
+      <c r="P16">
         <v>991109.4629272779</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>2077365.434295575</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>692455.1447651915</v>
       </c>
-      <c r="R16">
+      <c r="S16">
+        <v>130.1268316222973</v>
+      </c>
+      <c r="T16">
         <v>103132.0204022518</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>8755478.815399498</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>9447933.960164689</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>0.193795897</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
+        <v>113.565</v>
+      </c>
+      <c r="Z16">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA16">
+        <v>558.381360688601</v>
+      </c>
+      <c r="AB16">
+        <v>3.7935</v>
+      </c>
+      <c r="AC16">
         <v>241758.9299439463</v>
       </c>
-      <c r="X16">
+      <c r="AD16">
         <v>505276.1635828477</v>
       </c>
-      <c r="Y16">
+      <c r="AE16">
         <v>168425.3878609492</v>
       </c>
-      <c r="Z16">
+      <c r="AF16">
         <v>168425.3878609492</v>
       </c>
-      <c r="AB16">
+      <c r="AH16">
         <v>0.193795897</v>
       </c>
-      <c r="AC16">
+      <c r="AI16">
+        <v>-3.07481574</v>
+      </c>
+      <c r="AJ16">
+        <v>20</v>
+      </c>
+      <c r="AK16">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL16">
         <v>1077849.989095154</v>
       </c>
-      <c r="AD16">
+      <c r="AM16">
         <v>8752.141911452649</v>
       </c>
-      <c r="AF16">
+      <c r="AO16">
         <v>0.193795897</v>
       </c>
-      <c r="AG16">
+      <c r="AP16">
+        <v>522.1659013436936</v>
+      </c>
+      <c r="AQ16">
+        <v>1.75</v>
+      </c>
+      <c r="AR16">
+        <v>21887578.9799493</v>
+      </c>
+      <c r="AS16">
+        <v>45745040.06809403</v>
+      </c>
+      <c r="AT16">
+        <v>15248346.68936468</v>
+      </c>
+      <c r="AU16">
+        <v>3.8</v>
+      </c>
+      <c r="AV16">
         <v>16171477.96461419</v>
       </c>
-      <c r="AH16">
-        <v>21887578.9799493</v>
-      </c>
-      <c r="AI16">
-        <v>45745040.06809403</v>
-      </c>
-      <c r="AJ16">
-        <v>15248346.68936468</v>
-      </c>
-      <c r="AK16">
+      <c r="AW16">
         <v>31419824.65397886</v>
       </c>
-      <c r="AM16">
+      <c r="AY16">
         <v>0.193795897</v>
       </c>
-      <c r="AN16">
+      <c r="AZ16">
+        <v>506625</v>
+      </c>
+      <c r="BA16">
+        <v>55698.17147699203</v>
+      </c>
+      <c r="BB16">
+        <v>34139.3984915926</v>
+      </c>
+      <c r="BC16">
+        <v>71351.34284742855</v>
+      </c>
+      <c r="BD16">
+        <v>23783.78094914285</v>
+      </c>
+      <c r="BE16">
+        <v>0.035</v>
+      </c>
+      <c r="BF16">
         <v>21306.02576614185</v>
       </c>
-      <c r="AO16">
-        <v>34139.3984915926</v>
-      </c>
-      <c r="AP16">
-        <v>71351.34284742855</v>
-      </c>
-      <c r="AQ16">
-        <v>23783.78094914285</v>
-      </c>
-      <c r="AR16">
+      <c r="BG16">
         <v>45089.80671528469</v>
       </c>
-      <c r="AT16">
+      <c r="BI16">
         <v>0.193795897</v>
       </c>
-      <c r="AU16">
+      <c r="BJ16">
         <v>0.2443270629158684</v>
       </c>
-      <c r="AV16">
+      <c r="BK16">
         <v>9447933.960164689</v>
       </c>
-      <c r="AW16">
+      <c r="BL16">
         <v>168425.3878609492</v>
       </c>
-      <c r="AX16">
+      <c r="BM16">
         <v>31419824.65397886</v>
       </c>
-      <c r="AY16">
+      <c r="BN16">
         <v>45089.80671528469</v>
       </c>
-      <c r="AZ16">
+      <c r="BO16">
         <v>8752.141911452649</v>
       </c>
-      <c r="BA16">
+      <c r="BP16">
         <v>60403026.76016434</v>
       </c>
-      <c r="BB16">
+      <c r="BQ16">
         <v>19313000.8095331</v>
       </c>
     </row>
-    <row r="17" spans="2:54">
+    <row r="17" spans="2:69">
       <c r="B17">
         <v>0.205081994</v>
       </c>
@@ -2820,112 +3579,157 @@
         <v>86.8729052014</v>
       </c>
       <c r="O17">
+        <v>2.3625</v>
+      </c>
+      <c r="P17">
         <v>1063787.327301411</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>2229698.238023758</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>743232.7460079194</v>
       </c>
-      <c r="R17">
+      <c r="S17">
+        <v>145.7888218905806</v>
+      </c>
+      <c r="T17">
         <v>115544.9307893797</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>9809283.18680671</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>10552515.93281463</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>0.205081994</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
+        <v>113.565</v>
+      </c>
+      <c r="Z17">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA17">
+        <v>582.1591341487581</v>
+      </c>
+      <c r="AB17">
+        <v>3.7935</v>
+      </c>
+      <c r="AC17">
         <v>248401.6903796382</v>
       </c>
-      <c r="X17">
+      <c r="AD17">
         <v>519159.5328934437</v>
       </c>
-      <c r="Y17">
+      <c r="AE17">
         <v>173053.1776311479</v>
       </c>
-      <c r="Z17">
+      <c r="AF17">
         <v>173053.1776311479</v>
       </c>
-      <c r="AB17">
+      <c r="AH17">
         <v>0.205081994</v>
       </c>
-      <c r="AC17">
+      <c r="AI17">
+        <v>-3.20575183</v>
+      </c>
+      <c r="AJ17">
+        <v>20</v>
+      </c>
+      <c r="AK17">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL17">
         <v>1123748.499806779</v>
       </c>
-      <c r="AD17">
+      <c r="AM17">
         <v>9124.83781843104</v>
       </c>
-      <c r="AF17">
+      <c r="AO17">
         <v>0.205081994</v>
       </c>
-      <c r="AG17">
+      <c r="AP17">
+        <v>536.349198102396</v>
+      </c>
+      <c r="AQ17">
+        <v>1.75</v>
+      </c>
+      <c r="AR17">
+        <v>22391902.00040233</v>
+      </c>
+      <c r="AS17">
+        <v>46799075.18084087</v>
+      </c>
+      <c r="AT17">
+        <v>15599691.72694696</v>
+      </c>
+      <c r="AU17">
+        <v>3.8</v>
+      </c>
+      <c r="AV17">
         <v>16610734.6652312</v>
       </c>
-      <c r="AH17">
-        <v>22391902.00040233</v>
-      </c>
-      <c r="AI17">
-        <v>46799075.18084087</v>
-      </c>
-      <c r="AJ17">
-        <v>15599691.72694696</v>
-      </c>
-      <c r="AK17">
+      <c r="AW17">
         <v>32210426.39217816</v>
       </c>
-      <c r="AM17">
+      <c r="AY17">
         <v>0.205081994</v>
       </c>
-      <c r="AN17">
+      <c r="AZ17">
+        <v>506625</v>
+      </c>
+      <c r="BA17">
+        <v>57235.29314105662</v>
+      </c>
+      <c r="BB17">
+        <v>34724.65575901511</v>
+      </c>
+      <c r="BC17">
+        <v>72574.53053634157</v>
+      </c>
+      <c r="BD17">
+        <v>24191.51017878052</v>
+      </c>
+      <c r="BE17">
+        <v>0.035</v>
+      </c>
+      <c r="BF17">
         <v>21894.01551359314</v>
       </c>
-      <c r="AO17">
-        <v>34724.65575901511</v>
-      </c>
-      <c r="AP17">
-        <v>72574.53053634157</v>
-      </c>
-      <c r="AQ17">
-        <v>24191.51017878052</v>
-      </c>
-      <c r="AR17">
+      <c r="BG17">
         <v>46085.52569237366</v>
       </c>
-      <c r="AT17">
+      <c r="BI17">
         <v>0.205081994</v>
       </c>
-      <c r="AU17">
+      <c r="BJ17">
         <v>0.2247602516534925</v>
       </c>
-      <c r="AV17">
+      <c r="BK17">
         <v>10552515.93281463</v>
       </c>
-      <c r="AW17">
+      <c r="BL17">
         <v>173053.1776311479</v>
       </c>
-      <c r="AX17">
+      <c r="BM17">
         <v>32210426.39217816</v>
       </c>
-      <c r="AY17">
+      <c r="BN17">
         <v>46085.52569237366</v>
       </c>
-      <c r="AZ17">
+      <c r="BO17">
         <v>9124.83781843104</v>
       </c>
-      <c r="BA17">
+      <c r="BP17">
         <v>59119478.3147129</v>
       </c>
-      <c r="BB17">
+      <c r="BQ17">
         <v>16128272.44857815</v>
       </c>
     </row>
-    <row r="18" spans="2:54">
+    <row r="18" spans="2:69">
       <c r="B18">
         <v>0.216781642</v>
       </c>
@@ -2963,112 +3767,157 @@
         <v>90.2270590336</v>
       </c>
       <c r="O18">
+        <v>2.3625</v>
+      </c>
+      <c r="P18">
         <v>1141794.641918661</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>2393201.569461513</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>797733.8564871709</v>
       </c>
-      <c r="R18">
+      <c r="S18">
+        <v>163.3358794696874</v>
+      </c>
+      <c r="T18">
         <v>129451.8512737008</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>10989922.79042356</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>11787656.64691073</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>0.216781642</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
+        <v>113.565</v>
+      </c>
+      <c r="Z18">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA18">
+        <v>607.2329112314796</v>
+      </c>
+      <c r="AB18">
+        <v>3.7935</v>
+      </c>
+      <c r="AC18">
         <v>255304.4458443906</v>
       </c>
-      <c r="X18">
+      <c r="AD18">
         <v>533586.2918147764</v>
       </c>
-      <c r="Y18">
+      <c r="AE18">
         <v>177862.0972715921</v>
       </c>
-      <c r="Z18">
+      <c r="AF18">
         <v>177862.0972715921</v>
       </c>
-      <c r="AB18">
+      <c r="AH18">
         <v>0.216781642</v>
       </c>
-      <c r="AC18">
+      <c r="AI18">
+        <v>-3.34382457</v>
+      </c>
+      <c r="AJ18">
+        <v>20</v>
+      </c>
+      <c r="AK18">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL18">
         <v>1172148.701278148</v>
       </c>
-      <c r="AD18">
+      <c r="AM18">
         <v>9517.84745437856</v>
       </c>
-      <c r="AF18">
+      <c r="AO18">
         <v>0.216781642</v>
       </c>
-      <c r="AG18">
+      <c r="AP18">
+        <v>552.0413507009016</v>
+      </c>
+      <c r="AQ18">
+        <v>1.75</v>
+      </c>
+      <c r="AR18">
+        <v>22947552.00677655</v>
+      </c>
+      <c r="AS18">
+        <v>47960383.69416299</v>
+      </c>
+      <c r="AT18">
+        <v>15986794.564721</v>
+      </c>
+      <c r="AU18">
+        <v>3.8</v>
+      </c>
+      <c r="AV18">
         <v>17096720.63120692</v>
       </c>
-      <c r="AH18">
-        <v>22947552.00677655</v>
-      </c>
-      <c r="AI18">
-        <v>47960383.69416299</v>
-      </c>
-      <c r="AJ18">
-        <v>15986794.564721</v>
-      </c>
-      <c r="AK18">
+      <c r="AW18">
         <v>33083515.19592792</v>
       </c>
-      <c r="AM18">
+      <c r="AY18">
         <v>0.216781642</v>
       </c>
-      <c r="AN18">
+      <c r="AZ18">
+        <v>506625</v>
+      </c>
+      <c r="BA18">
+        <v>58934.68973886772</v>
+      </c>
+      <c r="BB18">
+        <v>35364.42885328422</v>
+      </c>
+      <c r="BC18">
+        <v>73911.65630336401</v>
+      </c>
+      <c r="BD18">
+        <v>24637.218767788</v>
+      </c>
+      <c r="BE18">
+        <v>0.035</v>
+      </c>
+      <c r="BF18">
         <v>22544.07972108357</v>
       </c>
-      <c r="AO18">
-        <v>35364.42885328422</v>
-      </c>
-      <c r="AP18">
-        <v>73911.65630336401</v>
-      </c>
-      <c r="AQ18">
-        <v>24637.218767788</v>
-      </c>
-      <c r="AR18">
+      <c r="BG18">
         <v>47181.29848887157</v>
       </c>
-      <c r="AT18">
+      <c r="BI18">
         <v>0.216781642</v>
       </c>
-      <c r="AU18">
+      <c r="BJ18">
         <v>0.2065743251928288</v>
       </c>
-      <c r="AV18">
+      <c r="BK18">
         <v>11787656.64691073</v>
       </c>
-      <c r="AW18">
+      <c r="BL18">
         <v>177862.0972715921</v>
       </c>
-      <c r="AX18">
+      <c r="BM18">
         <v>33083515.19592792</v>
       </c>
-      <c r="AY18">
+      <c r="BN18">
         <v>47181.29848887157</v>
       </c>
-      <c r="AZ18">
+      <c r="BO18">
         <v>9517.84745437856</v>
       </c>
-      <c r="BA18">
+      <c r="BP18">
         <v>57753415.69271519</v>
       </c>
-      <c r="BB18">
+      <c r="BQ18">
         <v>12647682.6066617</v>
       </c>
     </row>
-    <row r="19" spans="2:54">
+    <row r="19" spans="2:69">
       <c r="B19">
         <v>0.228913117</v>
       </c>
@@ -3106,112 +3955,157 @@
         <v>93.71071656060001</v>
       </c>
       <c r="O19">
+        <v>2.3625</v>
+      </c>
+      <c r="P19">
         <v>1225522.221523897</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>2568694.576314089</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>856231.5254380296</v>
       </c>
-      <c r="R19">
+      <c r="S19">
+        <v>182.9948916280229</v>
+      </c>
+      <c r="T19">
         <v>145032.6013597896</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>12312663.55294047</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>13168895.0783785</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>0.228913117</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
+        <v>113.565</v>
+      </c>
+      <c r="Z19">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA19">
+        <v>633.5788317340138</v>
+      </c>
+      <c r="AB19">
+        <v>3.7935</v>
+      </c>
+      <c r="AC19">
         <v>262450.775098659</v>
       </c>
-      <c r="X19">
+      <c r="AD19">
         <v>548522.1199561972</v>
       </c>
-      <c r="Y19">
+      <c r="AE19">
         <v>182840.7066520657</v>
       </c>
-      <c r="Z19">
+      <c r="AF19">
         <v>182840.7066520657</v>
       </c>
-      <c r="AB19">
+      <c r="AH19">
         <v>0.228913117</v>
       </c>
-      <c r="AC19">
+      <c r="AI19">
+        <v>-3.48890257</v>
+      </c>
+      <c r="AJ19">
+        <v>20</v>
+      </c>
+      <c r="AK19">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL19">
         <v>1223004.535884337</v>
       </c>
-      <c r="AD19">
+      <c r="AM19">
         <v>9930.796831380814</v>
       </c>
-      <c r="AF19">
+      <c r="AO19">
         <v>0.228913117</v>
       </c>
-      <c r="AG19">
+      <c r="AP19">
+        <v>569.2257044760609</v>
+      </c>
+      <c r="AQ19">
+        <v>1.75</v>
+      </c>
+      <c r="AR19">
+        <v>23553330.28723946</v>
+      </c>
+      <c r="AS19">
+        <v>49226460.30033047</v>
+      </c>
+      <c r="AT19">
+        <v>16408820.10011016</v>
+      </c>
+      <c r="AU19">
+        <v>3.8</v>
+      </c>
+      <c r="AV19">
         <v>17628920.0676236</v>
       </c>
-      <c r="AH19">
-        <v>23553330.28723946</v>
-      </c>
-      <c r="AI19">
-        <v>49226460.30033047</v>
-      </c>
-      <c r="AJ19">
-        <v>16408820.10011016</v>
-      </c>
-      <c r="AK19">
+      <c r="AW19">
         <v>34037740.16773376</v>
       </c>
-      <c r="AM19">
+      <c r="AY19">
         <v>0.228913117</v>
       </c>
-      <c r="AN19">
+      <c r="AZ19">
+        <v>506625</v>
+      </c>
+      <c r="BA19">
+        <v>60794.64579788098</v>
+      </c>
+      <c r="BB19">
+        <v>36056.24765521734</v>
+      </c>
+      <c r="BC19">
+        <v>75357.55759940423</v>
+      </c>
+      <c r="BD19">
+        <v>25119.18586646808</v>
+      </c>
+      <c r="BE19">
+        <v>0.035</v>
+      </c>
+      <c r="BF19">
         <v>23255.56217493033</v>
       </c>
-      <c r="AO19">
-        <v>36056.24765521734</v>
-      </c>
-      <c r="AP19">
-        <v>75357.55759940423</v>
-      </c>
-      <c r="AQ19">
-        <v>25119.18586646808</v>
-      </c>
-      <c r="AR19">
+      <c r="BG19">
         <v>48374.74804139841</v>
       </c>
-      <c r="AT19">
+      <c r="BI19">
         <v>0.228913117</v>
       </c>
-      <c r="AU19">
+      <c r="BJ19">
         <v>0.1897124435431068</v>
       </c>
-      <c r="AV19">
+      <c r="BK19">
         <v>13168895.0783785</v>
       </c>
-      <c r="AW19">
+      <c r="BL19">
         <v>182840.7066520657</v>
       </c>
-      <c r="AX19">
+      <c r="BM19">
         <v>34037740.16773376</v>
       </c>
-      <c r="AY19">
+      <c r="BN19">
         <v>48374.74804139841</v>
       </c>
-      <c r="AZ19">
+      <c r="BO19">
         <v>9930.796831380814</v>
       </c>
-      <c r="BA19">
+      <c r="BP19">
         <v>56291651.27351622</v>
       </c>
-      <c r="BB19">
+      <c r="BQ19">
         <v>8843869.775879119</v>
       </c>
     </row>
-    <row r="20" spans="2:54">
+    <row r="20" spans="2:69">
       <c r="B20">
         <v>0.241483595</v>
       </c>
@@ -3249,112 +4143,157 @@
         <v>97.32887802640001</v>
       </c>
       <c r="O20">
+        <v>2.3625</v>
+      </c>
+      <c r="P20">
         <v>1315389.535312143</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>2757056.466014251</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>919018.8220047504</v>
       </c>
-      <c r="R20">
+      <c r="S20">
+        <v>205.0200528957269</v>
+      </c>
+      <c r="T20">
         <v>162488.6429225084</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>13794608.74810878</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>14713627.57011353</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>0.241483595</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
+        <v>113.565</v>
+      </c>
+      <c r="Z20">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA20">
+        <v>661.1532430531375</v>
+      </c>
+      <c r="AB20">
+        <v>3.7935</v>
+      </c>
+      <c r="AC20">
         <v>269819.8010150319</v>
       </c>
-      <c r="X20">
+      <c r="AD20">
         <v>563923.3841214166</v>
       </c>
-      <c r="Y20">
+      <c r="AE20">
         <v>187974.4613738055</v>
       </c>
-      <c r="Z20">
+      <c r="AF20">
         <v>187974.4613738055</v>
       </c>
-      <c r="AB20">
+      <c r="AH20">
         <v>0.241483595</v>
       </c>
-      <c r="AC20">
+      <c r="AI20">
+        <v>-3.64074545</v>
+      </c>
+      <c r="AJ20">
+        <v>20</v>
+      </c>
+      <c r="AK20">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL20">
         <v>1276231.740501215</v>
       </c>
-      <c r="AD20">
+      <c r="AM20">
         <v>10363.00173286986</v>
       </c>
-      <c r="AF20">
+      <c r="AO20">
         <v>0.241483595</v>
       </c>
-      <c r="AG20">
+      <c r="AP20">
+        <v>587.9239845334408</v>
+      </c>
+      <c r="AQ20">
+        <v>1.75</v>
+      </c>
+      <c r="AR20">
+        <v>24209370.42145326</v>
+      </c>
+      <c r="AS20">
+        <v>50597584.18083731</v>
+      </c>
+      <c r="AT20">
+        <v>16865861.39361244</v>
+      </c>
+      <c r="AU20">
+        <v>3.8</v>
+      </c>
+      <c r="AV20">
         <v>18208005.80100066</v>
       </c>
-      <c r="AH20">
-        <v>24209370.42145326</v>
-      </c>
-      <c r="AI20">
-        <v>50597584.18083731</v>
-      </c>
-      <c r="AJ20">
-        <v>16865861.39361244</v>
-      </c>
-      <c r="AK20">
+      <c r="AW20">
         <v>35073867.1946131</v>
       </c>
-      <c r="AM20">
+      <c r="AY20">
         <v>0.241483595</v>
       </c>
-      <c r="AN20">
+      <c r="AZ20">
+        <v>506625</v>
+      </c>
+      <c r="BA20">
+        <v>62817.57685008662</v>
+      </c>
+      <c r="BB20">
+        <v>36799.14275604609</v>
+      </c>
+      <c r="BC20">
+        <v>76910.20836013633</v>
+      </c>
+      <c r="BD20">
+        <v>25636.73612004544</v>
+      </c>
+      <c r="BE20">
+        <v>0.035</v>
+      </c>
+      <c r="BF20">
         <v>24029.38688009549</v>
       </c>
-      <c r="AO20">
-        <v>36799.14275604609</v>
-      </c>
-      <c r="AP20">
-        <v>76910.20836013633</v>
-      </c>
-      <c r="AQ20">
-        <v>25636.73612004544</v>
-      </c>
-      <c r="AR20">
+      <c r="BG20">
         <v>49666.12300014093</v>
       </c>
-      <c r="AT20">
+      <c r="BI20">
         <v>0.241483595</v>
       </c>
-      <c r="AU20">
+      <c r="BJ20">
         <v>0.1741124929779878</v>
       </c>
-      <c r="AV20">
+      <c r="BK20">
         <v>14713627.57011353</v>
       </c>
-      <c r="AW20">
+      <c r="BL20">
         <v>187974.4613738055</v>
       </c>
-      <c r="AX20">
+      <c r="BM20">
         <v>35073867.1946131</v>
       </c>
-      <c r="AY20">
+      <c r="BN20">
         <v>49666.12300014093</v>
       </c>
-      <c r="AZ20">
+      <c r="BO20">
         <v>10363.00173286986</v>
       </c>
-      <c r="BA20">
+      <c r="BP20">
         <v>54743709.97566029</v>
       </c>
-      <c r="BB20">
+      <c r="BQ20">
         <v>4708211.624826838</v>
       </c>
     </row>
-    <row r="21" spans="2:54">
+    <row r="21" spans="2:69">
       <c r="B21">
         <v>0.254500468</v>
       </c>
@@ -3392,112 +4331,157 @@
         <v>101.0867359416</v>
       </c>
       <c r="O21">
+        <v>2.3625</v>
+      </c>
+      <c r="P21">
         <v>1411846.791717515</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>2959230.875439911</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>986410.2918133035</v>
       </c>
-      <c r="R21">
+      <c r="S21">
+        <v>229.6961473040624</v>
+      </c>
+      <c r="T21">
         <v>182045.6815458346</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>15454919.83956825</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>16441330.13138155</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>0.254500468</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
+        <v>113.565</v>
+      </c>
+      <c r="Z21">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA21">
+        <v>689.8964247666196</v>
+      </c>
+      <c r="AB21">
+        <v>3.7935</v>
+      </c>
+      <c r="AC21">
         <v>277387.5487894791</v>
       </c>
-      <c r="X21">
+      <c r="AD21">
         <v>579739.9769700114</v>
       </c>
-      <c r="Y21">
+      <c r="AE21">
         <v>193246.6589900038</v>
       </c>
-      <c r="Z21">
+      <c r="AF21">
         <v>193246.6589900038</v>
       </c>
-      <c r="AB21">
+      <c r="AH21">
         <v>0.254500468</v>
       </c>
-      <c r="AC21">
+      <c r="AI21">
+        <v>-3.79902435</v>
+      </c>
+      <c r="AJ21">
+        <v>20</v>
+      </c>
+      <c r="AK21">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL21">
         <v>1331715.036108057</v>
       </c>
-      <c r="AD21">
+      <c r="AM21">
         <v>10813.52609319742</v>
       </c>
-      <c r="AF21">
+      <c r="AO21">
         <v>0.254500468</v>
       </c>
-      <c r="AG21">
+      <c r="AP21">
+        <v>608.1609186632168</v>
+      </c>
+      <c r="AQ21">
+        <v>1.75</v>
+      </c>
+      <c r="AR21">
+        <v>24915879.76683756</v>
+      </c>
+      <c r="AS21">
+        <v>52074188.7126905</v>
+      </c>
+      <c r="AT21">
+        <v>17358062.90423017</v>
+      </c>
+      <c r="AU21">
+        <v>3.8</v>
+      </c>
+      <c r="AV21">
         <v>18834743.65099982</v>
       </c>
-      <c r="AH21">
-        <v>24915879.76683756</v>
-      </c>
-      <c r="AI21">
-        <v>52074188.7126905</v>
-      </c>
-      <c r="AJ21">
-        <v>17358062.90423017</v>
-      </c>
-      <c r="AK21">
+      <c r="AW21">
         <v>36192806.55522999</v>
       </c>
-      <c r="AM21">
+      <c r="AY21">
         <v>0.254500468</v>
       </c>
-      <c r="AN21">
+      <c r="AZ21">
+        <v>506625</v>
+      </c>
+      <c r="BA21">
+        <v>65006.16745495233</v>
+      </c>
+      <c r="BB21">
+        <v>37592.1769682833</v>
+      </c>
+      <c r="BC21">
+        <v>78567.6498637121</v>
+      </c>
+      <c r="BD21">
+        <v>26189.21662123736</v>
+      </c>
+      <c r="BE21">
+        <v>0.035</v>
+      </c>
+      <c r="BF21">
         <v>24866.58075167648</v>
       </c>
-      <c r="AO21">
-        <v>37592.1769682833</v>
-      </c>
-      <c r="AP21">
-        <v>78567.6498637121</v>
-      </c>
-      <c r="AQ21">
-        <v>26189.21662123736</v>
-      </c>
-      <c r="AR21">
+      <c r="BG21">
         <v>51055.79737291385</v>
       </c>
-      <c r="AT21">
+      <c r="BI21">
         <v>0.254500468</v>
       </c>
-      <c r="AU21">
+      <c r="BJ21">
         <v>0.1597079475122492</v>
       </c>
-      <c r="AV21">
+      <c r="BK21">
         <v>16441330.13138155</v>
       </c>
-      <c r="AW21">
+      <c r="BL21">
         <v>193246.6589900038</v>
       </c>
-      <c r="AX21">
+      <c r="BM21">
         <v>36192806.55522999</v>
       </c>
-      <c r="AY21">
+      <c r="BN21">
         <v>51055.79737291385</v>
       </c>
-      <c r="AZ21">
+      <c r="BO21">
         <v>10813.52609319742</v>
       </c>
-      <c r="BA21">
+      <c r="BP21">
         <v>53103366.21982274</v>
       </c>
-      <c r="BB21">
+      <c r="BQ21">
         <v>214113.5507550795</v>
       </c>
     </row>
-    <row r="22" spans="2:54">
+    <row r="22" spans="2:69">
       <c r="B22">
         <v>0.267947935</v>
       </c>
@@ -3535,112 +4519,157 @@
         <v>104.9896845983</v>
       </c>
       <c r="O22">
+        <v>2.3625</v>
+      </c>
+      <c r="P22">
         <v>1515377.246163445</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>3176230.70795858</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>1058743.569319527</v>
       </c>
-      <c r="R22">
+      <c r="S22">
+        <v>257.3422438291</v>
+      </c>
+      <c r="T22">
         <v>203956.5953467532</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>17315065.12579207</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>18373808.6951116</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>0.267947935</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
+        <v>113.565</v>
+      </c>
+      <c r="Z22">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA22">
+        <v>719.7488144427639</v>
+      </c>
+      <c r="AB22">
+        <v>3.7935</v>
+      </c>
+      <c r="AC22">
         <v>285131.4051572769</v>
       </c>
-      <c r="X22">
+      <c r="AD22">
         <v>595924.6367787087</v>
       </c>
-      <c r="Y22">
+      <c r="AE22">
         <v>198641.5455929029</v>
       </c>
-      <c r="Z22">
+      <c r="AF22">
         <v>198641.5455929029</v>
       </c>
-      <c r="AB22">
+      <c r="AH22">
         <v>0.267947935</v>
       </c>
-      <c r="AC22">
+      <c r="AI22">
+        <v>-3.96341128</v>
+      </c>
+      <c r="AJ22">
+        <v>20</v>
+      </c>
+      <c r="AK22">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL22">
         <v>1389339.448655095</v>
       </c>
-      <c r="AD22">
+      <c r="AM22">
         <v>11281.43632307937</v>
       </c>
-      <c r="AF22">
+      <c r="AO22">
         <v>0.267947935</v>
       </c>
-      <c r="AG22">
+      <c r="AP22">
+        <v>630.0308525806288</v>
+      </c>
+      <c r="AQ22">
+        <v>1.75</v>
+      </c>
+      <c r="AR22">
+        <v>25675448.53461934</v>
+      </c>
+      <c r="AS22">
+        <v>53661687.43735442</v>
+      </c>
+      <c r="AT22">
+        <v>17887229.14578481</v>
+      </c>
+      <c r="AU22">
+        <v>3.8</v>
+      </c>
+      <c r="AV22">
         <v>19512055.50442207</v>
       </c>
-      <c r="AH22">
-        <v>25675448.53461934</v>
-      </c>
-      <c r="AI22">
-        <v>53661687.43735442</v>
-      </c>
-      <c r="AJ22">
-        <v>17887229.14578481</v>
-      </c>
-      <c r="AK22">
+      <c r="AW22">
         <v>37399284.65020688</v>
       </c>
-      <c r="AM22">
+      <c r="AY22">
         <v>0.267947935</v>
       </c>
-      <c r="AN22">
+      <c r="AZ22">
+        <v>506625</v>
+      </c>
+      <c r="BA22">
+        <v>67370.51662711299</v>
+      </c>
+      <c r="BB22">
+        <v>38436.98896059372</v>
+      </c>
+      <c r="BC22">
+        <v>80333.30692764086</v>
+      </c>
+      <c r="BD22">
+        <v>26777.76897588029</v>
+      </c>
+      <c r="BE22">
+        <v>0.035</v>
+      </c>
+      <c r="BF22">
         <v>25771.00693024538</v>
       </c>
-      <c r="AO22">
-        <v>38436.98896059372</v>
-      </c>
-      <c r="AP22">
-        <v>80333.30692764086</v>
-      </c>
-      <c r="AQ22">
-        <v>26777.76897588029</v>
-      </c>
-      <c r="AR22">
+      <c r="BG22">
         <v>52548.77590612567</v>
       </c>
-      <c r="AT22">
+      <c r="BI22">
         <v>0.267947935</v>
       </c>
-      <c r="AU22">
+      <c r="BJ22">
         <v>0.1464279470685589</v>
       </c>
-      <c r="AV22">
+      <c r="BK22">
         <v>18373808.6951116</v>
       </c>
-      <c r="AW22">
+      <c r="BL22">
         <v>198641.5455929029</v>
       </c>
-      <c r="AX22">
+      <c r="BM22">
         <v>37399284.65020688</v>
       </c>
-      <c r="AY22">
+      <c r="BN22">
         <v>52548.77590612567</v>
       </c>
-      <c r="AZ22">
+      <c r="BO22">
         <v>11281.43632307937</v>
       </c>
-      <c r="BA22">
+      <c r="BP22">
         <v>51368788.9695727</v>
       </c>
-      <c r="BB22">
+      <c r="BQ22">
         <v>-4666776.133567886</v>
       </c>
     </row>
-    <row r="23" spans="2:54">
+    <row r="23" spans="2:69">
       <c r="B23">
         <v>0.281792559</v>
       </c>
@@ -3678,112 +4707,157 @@
         <v>109.0433256478</v>
       </c>
       <c r="O23">
+        <v>2.3625</v>
+      </c>
+      <c r="P23">
         <v>1626499.567296179</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>3409143.093052792</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>1136381.031017597</v>
       </c>
-      <c r="R23">
+      <c r="S23">
+        <v>288.3158081943346</v>
+      </c>
+      <c r="T23">
         <v>228504.69378442</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>19399096.39940649</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>20535477.43042409</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>0.281792559</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
+        <v>113.565</v>
+      </c>
+      <c r="Z23">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA23">
+        <v>750.6568660020862</v>
+      </c>
+      <c r="AB23">
+        <v>3.7935</v>
+      </c>
+      <c r="AC23">
         <v>293031.5493538937</v>
       </c>
-      <c r="X23">
+      <c r="AD23">
         <v>612435.9381496378</v>
       </c>
-      <c r="Y23">
+      <c r="AE23">
         <v>204145.3127165459</v>
       </c>
-      <c r="Z23">
+      <c r="AF23">
         <v>204145.3127165459</v>
       </c>
-      <c r="AB23">
+      <c r="AH23">
         <v>0.281792559</v>
       </c>
-      <c r="AC23">
+      <c r="AI23">
+        <v>-4.13361138</v>
+      </c>
+      <c r="AJ23">
+        <v>20</v>
+      </c>
+      <c r="AK23">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL23">
         <v>1449001.617526715</v>
       </c>
-      <c r="AD23">
+      <c r="AM23">
         <v>11765.89313431692</v>
       </c>
-      <c r="AF23">
+      <c r="AO23">
         <v>0.281792559</v>
       </c>
-      <c r="AG23">
+      <c r="AP23">
+        <v>653.6812351606376</v>
+      </c>
+      <c r="AQ23">
+        <v>1.75</v>
+      </c>
+      <c r="AR23">
+        <v>26492418.67536203</v>
+      </c>
+      <c r="AS23">
+        <v>55369155.03150664</v>
+      </c>
+      <c r="AT23">
+        <v>18456385.01050221</v>
+      </c>
+      <c r="AU23">
+        <v>3.8</v>
+      </c>
+      <c r="AV23">
         <v>20244507.85292494</v>
       </c>
-      <c r="AH23">
-        <v>26492418.67536203</v>
-      </c>
-      <c r="AI23">
-        <v>55369155.03150664</v>
-      </c>
-      <c r="AJ23">
-        <v>18456385.01050221</v>
-      </c>
-      <c r="AK23">
+      <c r="AW23">
         <v>38700892.86342715</v>
       </c>
-      <c r="AM23">
+      <c r="AY23">
         <v>0.281792559</v>
       </c>
-      <c r="AN23">
+      <c r="AZ23">
+        <v>506625</v>
+      </c>
+      <c r="BA23">
+        <v>69926.37934535956</v>
+      </c>
+      <c r="BB23">
+        <v>39336.99910961293</v>
+      </c>
+      <c r="BC23">
+        <v>82214.32813909101</v>
+      </c>
+      <c r="BD23">
+        <v>27404.77604636367</v>
+      </c>
+      <c r="BE23">
+        <v>0.035</v>
+      </c>
+      <c r="BF23">
         <v>26748.69211246321</v>
       </c>
-      <c r="AO23">
-        <v>39336.99910961293</v>
-      </c>
-      <c r="AP23">
-        <v>82214.32813909101</v>
-      </c>
-      <c r="AQ23">
-        <v>27404.77604636367</v>
-      </c>
-      <c r="AR23">
+      <c r="BG23">
         <v>54153.46815882687</v>
       </c>
-      <c r="AT23">
+      <c r="BI23">
         <v>0.281792559</v>
       </c>
-      <c r="AU23">
+      <c r="BJ23">
         <v>0.1341996250784113</v>
       </c>
-      <c r="AV23">
+      <c r="BK23">
         <v>20535477.43042409</v>
       </c>
-      <c r="AW23">
+      <c r="BL23">
         <v>204145.3127165459</v>
       </c>
-      <c r="AX23">
+      <c r="BM23">
         <v>38700892.86342715</v>
       </c>
-      <c r="AY23">
+      <c r="BN23">
         <v>54153.46815882687</v>
       </c>
-      <c r="AZ23">
+      <c r="BO23">
         <v>11765.89313431692</v>
       </c>
-      <c r="BA23">
+      <c r="BP23">
         <v>49536688.33197015</v>
       </c>
-      <c r="BB23">
+      <c r="BQ23">
         <v>-9969746.635890784</v>
       </c>
     </row>
-    <row r="24" spans="2:54">
+    <row r="24" spans="2:69">
       <c r="B24">
         <v>0.296067192</v>
       </c>
@@ -3821,112 +4895,157 @@
         <v>113.2534772874</v>
       </c>
       <c r="O24">
+        <v>2.3625</v>
+      </c>
+      <c r="P24">
         <v>1745770.464533783</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>3659134.893662808</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>1219711.631220936</v>
       </c>
-      <c r="R24">
+      <c r="S24">
+        <v>323.0173322673217</v>
+      </c>
+      <c r="T24">
         <v>256007.3866884659</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>21733960.43240622</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>22953672.06362715</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>0.296067192</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
+        <v>113.565</v>
+      </c>
+      <c r="Z24">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA24">
+        <v>782.4560550021704</v>
+      </c>
+      <c r="AB24">
+        <v>3.7935</v>
+      </c>
+      <c r="AC24">
         <v>301041.5231638601</v>
       </c>
-      <c r="X24">
+      <c r="AD24">
         <v>629176.7834124676</v>
       </c>
-      <c r="Y24">
+      <c r="AE24">
         <v>209725.5944708225</v>
       </c>
-      <c r="Z24">
+      <c r="AF24">
         <v>209725.5944708225</v>
       </c>
-      <c r="AB24">
+      <c r="AH24">
         <v>0.296067192</v>
       </c>
-      <c r="AC24">
+      <c r="AI24">
+        <v>-4.30871867</v>
+      </c>
+      <c r="AJ24">
+        <v>20</v>
+      </c>
+      <c r="AK24">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL24">
         <v>1510383.959291683</v>
       </c>
-      <c r="AD24">
+      <c r="AM24">
         <v>12264.31774944847</v>
       </c>
-      <c r="AF24">
+      <c r="AO24">
         <v>0.296067192</v>
       </c>
-      <c r="AG24">
+      <c r="AP24">
+        <v>679.0725060335327</v>
+      </c>
+      <c r="AQ24">
+        <v>1.75</v>
+      </c>
+      <c r="AR24">
+        <v>27364607.27164554</v>
+      </c>
+      <c r="AS24">
+        <v>57192029.19773918</v>
+      </c>
+      <c r="AT24">
+        <v>19064009.73257972</v>
+      </c>
+      <c r="AU24">
+        <v>3.8</v>
+      </c>
+      <c r="AV24">
         <v>21030875.51185851</v>
       </c>
-      <c r="AH24">
-        <v>27364607.27164554</v>
-      </c>
-      <c r="AI24">
-        <v>57192029.19773918</v>
-      </c>
-      <c r="AJ24">
-        <v>19064009.73257972</v>
-      </c>
-      <c r="AK24">
+      <c r="AW24">
         <v>40094885.24443823</v>
       </c>
-      <c r="AM24">
+      <c r="AY24">
         <v>0.296067192</v>
       </c>
-      <c r="AN24">
+      <c r="AZ24">
+        <v>506625</v>
+      </c>
+      <c r="BA24">
+        <v>72669.58845905495</v>
+      </c>
+      <c r="BB24">
+        <v>40288.46044130123</v>
+      </c>
+      <c r="BC24">
+        <v>84202.88232231958</v>
+      </c>
+      <c r="BD24">
+        <v>28067.62744077319</v>
+      </c>
+      <c r="BE24">
+        <v>0.035</v>
+      </c>
+      <c r="BF24">
         <v>27798.04225284354</v>
       </c>
-      <c r="AO24">
-        <v>40288.46044130123</v>
-      </c>
-      <c r="AP24">
-        <v>84202.88232231958</v>
-      </c>
-      <c r="AQ24">
-        <v>28067.62744077319</v>
-      </c>
-      <c r="AR24">
+      <c r="BG24">
         <v>55865.66969361673</v>
       </c>
-      <c r="AT24">
+      <c r="BI24">
         <v>0.296067192</v>
       </c>
-      <c r="AU24">
+      <c r="BJ24">
         <v>0.1229589243388243</v>
       </c>
-      <c r="AV24">
+      <c r="BK24">
         <v>22953672.06362715</v>
       </c>
-      <c r="AW24">
+      <c r="BL24">
         <v>209725.5944708225</v>
       </c>
-      <c r="AX24">
+      <c r="BM24">
         <v>40094885.24443823</v>
       </c>
-      <c r="AY24">
+      <c r="BN24">
         <v>55865.66969361673</v>
       </c>
-      <c r="AZ24">
+      <c r="BO24">
         <v>12264.31774944847</v>
       </c>
-      <c r="BA24">
+      <c r="BP24">
         <v>47611694.57140978</v>
       </c>
-      <c r="BB24">
+      <c r="BQ24">
         <v>-15714718.31856949</v>
       </c>
     </row>
-    <row r="25" spans="2:54">
+    <row r="25" spans="2:69">
       <c r="B25">
         <v>0.310756539</v>
       </c>
@@ -3964,112 +5083,157 @@
         <v>117.6261824629</v>
       </c>
       <c r="O25">
+        <v>2.3625</v>
+      </c>
+      <c r="P25">
         <v>1873787.473851981</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>3927458.545193753</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>1309152.848397918</v>
       </c>
-      <c r="R25">
+      <c r="S25">
+        <v>361.8955118375934</v>
+      </c>
+      <c r="T25">
         <v>286820.2879068847</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>24349847.35876156</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>25659000.20715948</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>0.310756539</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
+        <v>113.565</v>
+      </c>
+      <c r="Z25">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA25">
+        <v>815.0136893694283</v>
+      </c>
+      <c r="AB25">
+        <v>3.7935</v>
+      </c>
+      <c r="AC25">
         <v>309125.3483247689</v>
       </c>
-      <c r="X25">
+      <c r="AD25">
         <v>646071.977998767</v>
       </c>
-      <c r="Y25">
+      <c r="AE25">
         <v>215357.325999589</v>
       </c>
-      <c r="Z25">
+      <c r="AF25">
         <v>215357.325999589</v>
       </c>
-      <c r="AB25">
+      <c r="AH25">
         <v>0.310756539</v>
       </c>
-      <c r="AC25">
+      <c r="AI25">
+        <v>-4.48800246</v>
+      </c>
+      <c r="AJ25">
+        <v>20</v>
+      </c>
+      <c r="AK25">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL25">
         <v>1573230.336907936</v>
       </c>
-      <c r="AD25">
+      <c r="AM25">
         <v>12774.63033569243</v>
       </c>
-      <c r="AF25">
+      <c r="AO25">
         <v>0.310756539</v>
       </c>
-      <c r="AG25">
+      <c r="AP25">
+        <v>706.3052687822488</v>
+      </c>
+      <c r="AQ25">
+        <v>1.75</v>
+      </c>
+      <c r="AR25">
+        <v>28294633.53921411</v>
+      </c>
+      <c r="AS25">
+        <v>59135784.09695749</v>
+      </c>
+      <c r="AT25">
+        <v>19711928.03231916</v>
+      </c>
+      <c r="AU25">
+        <v>3.8</v>
+      </c>
+      <c r="AV25">
         <v>21874274.17418624</v>
       </c>
-      <c r="AH25">
-        <v>28294633.53921411</v>
-      </c>
-      <c r="AI25">
-        <v>59135784.09695749</v>
-      </c>
-      <c r="AJ25">
-        <v>19711928.03231916</v>
-      </c>
-      <c r="AK25">
+      <c r="AW25">
         <v>41586202.2065054</v>
       </c>
-      <c r="AM25">
+      <c r="AY25">
         <v>0.310756539</v>
       </c>
-      <c r="AN25">
+      <c r="AZ25">
+        <v>506625</v>
+      </c>
+      <c r="BA25">
+        <v>75610.85966935208</v>
+      </c>
+      <c r="BB25">
+        <v>41292.79311042042</v>
+      </c>
+      <c r="BC25">
+        <v>86301.93760077866</v>
+      </c>
+      <c r="BD25">
+        <v>28767.31253359289</v>
+      </c>
+      <c r="BE25">
+        <v>0.035</v>
+      </c>
+      <c r="BF25">
         <v>28923.15639088464</v>
       </c>
-      <c r="AO25">
-        <v>41292.79311042042</v>
-      </c>
-      <c r="AP25">
-        <v>86301.93760077866</v>
-      </c>
-      <c r="AQ25">
-        <v>28767.31253359289</v>
-      </c>
-      <c r="AR25">
+      <c r="BG25">
         <v>57690.46892447753</v>
       </c>
-      <c r="AT25">
+      <c r="BI25">
         <v>0.310756539</v>
       </c>
-      <c r="AU25">
+      <c r="BJ25">
         <v>0.1126371509837048</v>
       </c>
-      <c r="AV25">
+      <c r="BK25">
         <v>25659000.20715948</v>
       </c>
-      <c r="AW25">
+      <c r="BL25">
         <v>215357.325999589</v>
       </c>
-      <c r="AX25">
+      <c r="BM25">
         <v>41586202.2065054</v>
       </c>
-      <c r="AY25">
+      <c r="BN25">
         <v>57690.46892447753</v>
       </c>
-      <c r="AZ25">
+      <c r="BO25">
         <v>12774.63033569243</v>
       </c>
-      <c r="BA25">
+      <c r="BP25">
         <v>45584006.73120768</v>
       </c>
-      <c r="BB25">
+      <c r="BQ25">
         <v>-21947018.10771697</v>
       </c>
     </row>
-    <row r="26" spans="2:54">
+    <row r="26" spans="2:69">
       <c r="B26">
         <v>0.325827431</v>
       </c>
@@ -4107,112 +5271,157 @@
         <v>122.1677170711</v>
       </c>
       <c r="O26">
+        <v>2.3625</v>
+      </c>
+      <c r="P26">
         <v>2011191.937407499</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>4215458.300806118</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1405152.766935373</v>
       </c>
-      <c r="R26">
+      <c r="S26">
+        <v>405.4530439913006</v>
+      </c>
+      <c r="T26">
         <v>321341.8100153054</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>27280580.74609103</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>28685733.5130264</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>0.325827431</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
+        <v>113.565</v>
+      </c>
+      <c r="Z26">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA26">
+        <v>848.193964435134</v>
+      </c>
+      <c r="AB26">
+        <v>3.7935</v>
+      </c>
+      <c r="AC26">
         <v>317248.2952527226</v>
       </c>
-      <c r="X26">
+      <c r="AD26">
         <v>663048.9370781902</v>
       </c>
-      <c r="Y26">
+      <c r="AE26">
         <v>221016.3123593967</v>
       </c>
-      <c r="Z26">
+      <c r="AF26">
         <v>221016.3123593967</v>
       </c>
-      <c r="AB26">
+      <c r="AH26">
         <v>0.325827431</v>
       </c>
-      <c r="AC26">
+      <c r="AI26">
+        <v>-4.67071492</v>
+      </c>
+      <c r="AJ26">
+        <v>20</v>
+      </c>
+      <c r="AK26">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL26">
         <v>1637278.60505507</v>
       </c>
-      <c r="AD26">
+      <c r="AM26">
         <v>13294.70227304717</v>
       </c>
-      <c r="AF26">
+      <c r="AO26">
         <v>0.325827431</v>
       </c>
-      <c r="AG26">
+      <c r="AP26">
+        <v>735.5372462401041</v>
+      </c>
+      <c r="AQ26">
+        <v>1.75</v>
+      </c>
+      <c r="AR26">
+        <v>29286971.42751976</v>
+      </c>
+      <c r="AS26">
+        <v>61209770.2835163</v>
+      </c>
+      <c r="AT26">
+        <v>20403256.7611721</v>
+      </c>
+      <c r="AU26">
+        <v>3.8</v>
+      </c>
+      <c r="AV26">
         <v>22779588.51605602</v>
       </c>
-      <c r="AH26">
-        <v>29286971.42751976</v>
-      </c>
-      <c r="AI26">
-        <v>61209770.2835163</v>
-      </c>
-      <c r="AJ26">
-        <v>20403256.7611721</v>
-      </c>
-      <c r="AK26">
+      <c r="AW26">
         <v>43182845.27722812</v>
       </c>
-      <c r="AM26">
+      <c r="AY26">
         <v>0.325827431</v>
       </c>
-      <c r="AN26">
+      <c r="AZ26">
+        <v>506625</v>
+      </c>
+      <c r="BA26">
+        <v>78767.05161626783</v>
+      </c>
+      <c r="BB26">
+        <v>42353.28270336313</v>
+      </c>
+      <c r="BC26">
+        <v>88518.36085002893</v>
+      </c>
+      <c r="BD26">
+        <v>29506.12028334297</v>
+      </c>
+      <c r="BE26">
+        <v>0.035</v>
+      </c>
+      <c r="BF26">
         <v>30130.48340289714</v>
       </c>
-      <c r="AO26">
-        <v>42353.28270336313</v>
-      </c>
-      <c r="AP26">
-        <v>88518.36085002893</v>
-      </c>
-      <c r="AQ26">
-        <v>29506.12028334297</v>
-      </c>
-      <c r="AR26">
+      <c r="BG26">
         <v>59636.60368624012</v>
       </c>
-      <c r="AT26">
+      <c r="BI26">
         <v>0.325827431</v>
       </c>
-      <c r="AU26">
+      <c r="BJ26">
         <v>0.1031667950446936</v>
       </c>
-      <c r="AV26">
+      <c r="BK26">
         <v>28685733.5130264</v>
       </c>
-      <c r="AW26">
+      <c r="BL26">
         <v>221016.3123593967</v>
       </c>
-      <c r="AX26">
+      <c r="BM26">
         <v>43182845.27722812</v>
       </c>
-      <c r="AY26">
+      <c r="BN26">
         <v>59636.60368624012</v>
       </c>
-      <c r="AZ26">
+      <c r="BO26">
         <v>13294.70227304717</v>
       </c>
-      <c r="BA26">
+      <c r="BP26">
         <v>43464072.23980683</v>
       </c>
-      <c r="BB26">
+      <c r="BQ26">
         <v>-28698454.16876637</v>
       </c>
     </row>
-    <row r="27" spans="2:54">
+    <row r="27" spans="2:69">
       <c r="B27">
         <v>0.341227723</v>
       </c>
@@ -4250,112 +5459,157 @@
         <v>126.8846001309</v>
       </c>
       <c r="O27">
+        <v>2.3625</v>
+      </c>
+      <c r="P27">
         <v>2158672.251748368</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>4524577.03966458</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>1508192.34655486</v>
       </c>
-      <c r="R27">
+      <c r="S27">
+        <v>454.2531381959968</v>
+      </c>
+      <c r="T27">
         <v>360018.3246772374</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>30564055.68874463</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>32072248.03529949</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>0.341227723</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
+        <v>113.565</v>
+      </c>
+      <c r="Z27">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA27">
+        <v>881.8791935945586</v>
+      </c>
+      <c r="AB27">
+        <v>3.7935</v>
+      </c>
+      <c r="AC27">
         <v>325381.8650167024</v>
       </c>
-      <c r="X27">
+      <c r="AD27">
         <v>680048.097884908</v>
       </c>
-      <c r="Y27">
+      <c r="AE27">
         <v>226682.6992949693</v>
       </c>
-      <c r="Z27">
+      <c r="AF27">
         <v>226682.6992949693</v>
       </c>
-      <c r="AB27">
+      <c r="AH27">
         <v>0.341227723</v>
       </c>
-      <c r="AC27">
+      <c r="AI27">
+        <v>-4.85620799</v>
+      </c>
+      <c r="AJ27">
+        <v>20</v>
+      </c>
+      <c r="AK27">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL27">
         <v>1702301.591920854</v>
       </c>
-      <c r="AD27">
+      <c r="AM27">
         <v>13822.68892639733</v>
       </c>
-      <c r="AF27">
+      <c r="AO27">
         <v>0.341227723</v>
       </c>
-      <c r="AG27">
+      <c r="AP27">
+        <v>766.9879175912351</v>
+      </c>
+      <c r="AQ27">
+        <v>1.75</v>
+      </c>
+      <c r="AR27">
+        <v>30348046.34437978</v>
+      </c>
+      <c r="AS27">
+        <v>63427416.85975373</v>
+      </c>
+      <c r="AT27">
+        <v>21142472.28658457</v>
+      </c>
+      <c r="AU27">
+        <v>3.8</v>
+      </c>
+      <c r="AV27">
         <v>23753615.80780055</v>
       </c>
-      <c r="AH27">
-        <v>30348046.34437978</v>
-      </c>
-      <c r="AI27">
-        <v>63427416.85975373</v>
-      </c>
-      <c r="AJ27">
-        <v>21142472.28658457</v>
-      </c>
-      <c r="AK27">
+      <c r="AW27">
         <v>44896088.09438512</v>
       </c>
-      <c r="AM27">
+      <c r="AY27">
         <v>0.341227723</v>
       </c>
-      <c r="AN27">
+      <c r="AZ27">
+        <v>506625</v>
+      </c>
+      <c r="BA27">
+        <v>82161.57695863926</v>
+      </c>
+      <c r="BB27">
+        <v>43475.05288530503</v>
+      </c>
+      <c r="BC27">
+        <v>90862.86053028752</v>
+      </c>
+      <c r="BD27">
+        <v>30287.62017676251</v>
+      </c>
+      <c r="BE27">
+        <v>0.035</v>
+      </c>
+      <c r="BF27">
         <v>31428.97925097472</v>
       </c>
-      <c r="AO27">
-        <v>43475.05288530503</v>
-      </c>
-      <c r="AP27">
-        <v>90862.86053028752</v>
-      </c>
-      <c r="AQ27">
-        <v>30287.62017676251</v>
-      </c>
-      <c r="AR27">
+      <c r="BG27">
         <v>61716.59942773722</v>
       </c>
-      <c r="AT27">
+      <c r="BI27">
         <v>0.341227723</v>
       </c>
-      <c r="AU27">
+      <c r="BJ27">
         <v>0.09448152761062101</v>
       </c>
-      <c r="AV27">
+      <c r="BK27">
         <v>32072248.03529949</v>
       </c>
-      <c r="AW27">
+      <c r="BL27">
         <v>226682.6992949693</v>
       </c>
-      <c r="AX27">
+      <c r="BM27">
         <v>44896088.09438512</v>
       </c>
-      <c r="AY27">
+      <c r="BN27">
         <v>61716.59942773722</v>
       </c>
-      <c r="AZ27">
+      <c r="BO27">
         <v>13822.68892639733</v>
       </c>
-      <c r="BA27">
+      <c r="BP27">
         <v>41247008.27635235</v>
       </c>
-      <c r="BB27">
+      <c r="BQ27">
         <v>-36023549.84098137</v>
       </c>
     </row>
-    <row r="28" spans="2:54">
+    <row r="28" spans="2:69">
       <c r="B28">
         <v>0.356999897</v>
       </c>
@@ -4393,112 +5647,157 @@
         <v>131.7836016577</v>
       </c>
       <c r="O28">
+        <v>2.3625</v>
+      </c>
+      <c r="P28">
         <v>2316967.272014762</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>4856363.402142942</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>1618787.800714314</v>
       </c>
-      <c r="R28">
+      <c r="S28">
+        <v>508.9267846499166</v>
+      </c>
+      <c r="T28">
         <v>403349.9231742914</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>34242727.85281745</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>35861515.65353177</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>0.356999897</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
+        <v>113.565</v>
+      </c>
+      <c r="Z28">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA28">
+        <v>915.7937142358352</v>
+      </c>
+      <c r="AB28">
+        <v>3.7935</v>
+      </c>
+      <c r="AC28">
         <v>333461.6612464782</v>
       </c>
-      <c r="X28">
+      <c r="AD28">
         <v>696934.8720051394</v>
       </c>
-      <c r="Y28">
+      <c r="AE28">
         <v>232311.6240017131</v>
       </c>
-      <c r="Z28">
+      <c r="AF28">
         <v>232311.6240017131</v>
       </c>
-      <c r="AB28">
+      <c r="AH28">
         <v>0.356999897</v>
       </c>
-      <c r="AC28">
+      <c r="AI28">
+        <v>-5.04296369</v>
+      </c>
+      <c r="AJ28">
+        <v>20</v>
+      </c>
+      <c r="AK28">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL28">
         <v>1767767.182782067</v>
       </c>
-      <c r="AD28">
+      <c r="AM28">
         <v>14354.26952419038</v>
       </c>
-      <c r="AF28">
+      <c r="AO28">
         <v>0.356999897</v>
       </c>
-      <c r="AG28">
+      <c r="AP28">
+        <v>800.6111233840776</v>
+      </c>
+      <c r="AQ28">
+        <v>1.75</v>
+      </c>
+      <c r="AR28">
+        <v>31475227.0208402</v>
+      </c>
+      <c r="AS28">
+        <v>65783224.47355601</v>
+      </c>
+      <c r="AT28">
+        <v>21927741.49118534</v>
+      </c>
+      <c r="AU28">
+        <v>3.8</v>
+      </c>
+      <c r="AV28">
         <v>24794926.49120488</v>
       </c>
-      <c r="AH28">
-        <v>31475227.0208402</v>
-      </c>
-      <c r="AI28">
-        <v>65783224.47355601</v>
-      </c>
-      <c r="AJ28">
-        <v>21927741.49118534</v>
-      </c>
-      <c r="AK28">
+      <c r="AW28">
         <v>46722667.98239022</v>
       </c>
-      <c r="AM28">
+      <c r="AY28">
         <v>0.356999897</v>
       </c>
-      <c r="AN28">
+      <c r="AZ28">
+        <v>506625</v>
+      </c>
+      <c r="BA28">
+        <v>85789.49850838449</v>
+      </c>
+      <c r="BB28">
+        <v>44653.64575963956</v>
+      </c>
+      <c r="BC28">
+        <v>93326.11963764667</v>
+      </c>
+      <c r="BD28">
+        <v>31108.70654588222</v>
+      </c>
+      <c r="BE28">
+        <v>0.035</v>
+      </c>
+      <c r="BF28">
         <v>32816.75532991374</v>
       </c>
-      <c r="AO28">
-        <v>44653.64575963956</v>
-      </c>
-      <c r="AP28">
-        <v>93326.11963764667</v>
-      </c>
-      <c r="AQ28">
-        <v>31108.70654588222</v>
-      </c>
-      <c r="AR28">
+      <c r="BG28">
         <v>63925.46187579597</v>
       </c>
-      <c r="AT28">
+      <c r="BI28">
         <v>0.356999897</v>
       </c>
-      <c r="AU28">
+      <c r="BJ28">
         <v>0.08652618543502161</v>
       </c>
-      <c r="AV28">
+      <c r="BK28">
         <v>35861515.65353177</v>
       </c>
-      <c r="AW28">
+      <c r="BL28">
         <v>232311.6240017131</v>
       </c>
-      <c r="AX28">
+      <c r="BM28">
         <v>46722667.98239022</v>
       </c>
-      <c r="AY28">
+      <c r="BN28">
         <v>63925.46187579597</v>
       </c>
-      <c r="AZ28">
+      <c r="BO28">
         <v>14354.26952419038</v>
       </c>
-      <c r="BA28">
+      <c r="BP28">
         <v>38935520.40073038</v>
       </c>
-      <c r="BB28">
+      <c r="BQ28">
         <v>-43959254.5905933</v>
       </c>
     </row>
-    <row r="29" spans="2:54">
+    <row r="29" spans="2:69">
       <c r="B29">
         <v>0.373043649</v>
       </c>
@@ -4536,112 +5835,157 @@
         <v>136.8717531626</v>
       </c>
       <c r="O29">
+        <v>2.3625</v>
+      </c>
+      <c r="P29">
         <v>2486870.036518593</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>5212479.596542971</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>1737493.198847657</v>
       </c>
-      <c r="R29">
+      <c r="S29">
+        <v>570.1809200785608</v>
+      </c>
+      <c r="T29">
         <v>451896.8882082634</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>38364162.9051807</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>40101656.10402836</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>0.373043649</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
+        <v>113.565</v>
+      </c>
+      <c r="Z29">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA29">
+        <v>949.8064650382545</v>
+      </c>
+      <c r="AB29">
+        <v>3.7935</v>
+      </c>
+      <c r="AC29">
         <v>341460.3336844931</v>
       </c>
-      <c r="X29">
+      <c r="AD29">
         <v>713652.0974005905</v>
       </c>
-      <c r="Y29">
+      <c r="AE29">
         <v>237884.0324668635</v>
       </c>
-      <c r="Z29">
+      <c r="AF29">
         <v>237884.0324668635</v>
       </c>
-      <c r="AB29">
+      <c r="AH29">
         <v>0.373043649</v>
       </c>
-      <c r="AC29">
+      <c r="AI29">
+        <v>-5.23026031</v>
+      </c>
+      <c r="AJ29">
+        <v>20</v>
+      </c>
+      <c r="AK29">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL29">
         <v>1833422.38845776</v>
       </c>
-      <c r="AD29">
+      <c r="AM29">
         <v>14887.38979427701</v>
       </c>
-      <c r="AF29">
+      <c r="AO29">
         <v>0.373043649</v>
       </c>
-      <c r="AG29">
+      <c r="AP29">
+        <v>836.7745014031816</v>
+      </c>
+      <c r="AQ29">
+        <v>1.75</v>
+      </c>
+      <c r="AR29">
+        <v>32679670.30997141</v>
+      </c>
+      <c r="AS29">
+        <v>68300510.94784024</v>
+      </c>
+      <c r="AT29">
+        <v>22766836.98261341</v>
+      </c>
+      <c r="AU29">
+        <v>3.8</v>
+      </c>
+      <c r="AV29">
         <v>25914906.30845653</v>
       </c>
-      <c r="AH29">
-        <v>32679670.30997141</v>
-      </c>
-      <c r="AI29">
-        <v>68300510.94784024</v>
-      </c>
-      <c r="AJ29">
-        <v>22766836.98261341</v>
-      </c>
-      <c r="AK29">
+      <c r="AW29">
         <v>48681743.29106995</v>
       </c>
-      <c r="AM29">
+      <c r="AY29">
         <v>0.373043649</v>
       </c>
-      <c r="AN29">
+      <c r="AZ29">
+        <v>506625</v>
+      </c>
+      <c r="BA29">
+        <v>89690.02306814439</v>
+      </c>
+      <c r="BB29">
+        <v>45898.76972833351</v>
+      </c>
+      <c r="BC29">
+        <v>95928.42873221704</v>
+      </c>
+      <c r="BD29">
+        <v>31976.14291073901</v>
+      </c>
+      <c r="BE29">
+        <v>0.035</v>
+      </c>
+      <c r="BF29">
         <v>34308.80928012363</v>
       </c>
-      <c r="AO29">
-        <v>45898.76972833351</v>
-      </c>
-      <c r="AP29">
-        <v>95928.42873221704</v>
-      </c>
-      <c r="AQ29">
-        <v>31976.14291073901</v>
-      </c>
-      <c r="AR29">
+      <c r="BG29">
         <v>66284.95219086265</v>
       </c>
-      <c r="AT29">
+      <c r="BI29">
         <v>0.373043649</v>
       </c>
-      <c r="AU29">
+      <c r="BJ29">
         <v>0.07923850146049259</v>
       </c>
-      <c r="AV29">
+      <c r="BK29">
         <v>40101656.10402836</v>
       </c>
-      <c r="AW29">
+      <c r="BL29">
         <v>237884.0324668635</v>
       </c>
-      <c r="AX29">
+      <c r="BM29">
         <v>48681743.29106995</v>
       </c>
-      <c r="AY29">
+      <c r="BN29">
         <v>66284.95219086265</v>
       </c>
-      <c r="AZ29">
+      <c r="BO29">
         <v>14887.38979427701</v>
       </c>
-      <c r="BA29">
+      <c r="BP29">
         <v>36519768.83148076</v>
       </c>
-      <c r="BB29">
+      <c r="BQ29">
         <v>-52582686.93806954</v>
       </c>
     </row>
-    <row r="30" spans="2:54">
+    <row r="30" spans="2:69">
       <c r="B30">
         <v>0.389360698</v>
       </c>
@@ -4679,112 +6023,157 @@
         <v>142.1563574954</v>
       </c>
       <c r="O30">
+        <v>2.3625</v>
+      </c>
+      <c r="P30">
         <v>2669231.731544956</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>5594709.709318227</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>1864903.236439409</v>
       </c>
-      <c r="R30">
+      <c r="S30">
+        <v>638.8075655493336</v>
+      </c>
+      <c r="T30">
         <v>506286.9360761244</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>42981651.34396265</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>44846554.58040205</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <v>0.389360698</v>
       </c>
-      <c r="W30">
+      <c r="Y30">
+        <v>113.565</v>
+      </c>
+      <c r="Z30">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA30">
+        <v>983.6506199640102</v>
+      </c>
+      <c r="AB30">
+        <v>3.7935</v>
+      </c>
+      <c r="AC30">
         <v>349320.4387921243</v>
       </c>
-      <c r="X30">
+      <c r="AD30">
         <v>730079.7170755398</v>
       </c>
-      <c r="Y30">
+      <c r="AE30">
         <v>243359.9056918466</v>
       </c>
-      <c r="Z30">
+      <c r="AF30">
         <v>243359.9056918466</v>
       </c>
-      <c r="AB30">
+      <c r="AH30">
         <v>0.389360698</v>
       </c>
-      <c r="AC30">
+      <c r="AI30">
+        <v>-5.41662853</v>
+      </c>
+      <c r="AJ30">
+        <v>20</v>
+      </c>
+      <c r="AK30">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL30">
         <v>1898752.151565673</v>
       </c>
-      <c r="AD30">
+      <c r="AM30">
         <v>15417.86747071326</v>
       </c>
-      <c r="AF30">
+      <c r="AO30">
         <v>0.389360698</v>
       </c>
-      <c r="AG30">
+      <c r="AP30">
+        <v>875.5699406218351</v>
+      </c>
+      <c r="AQ30">
+        <v>1.75</v>
+      </c>
+      <c r="AR30">
+        <v>33963130.2964395</v>
+      </c>
+      <c r="AS30">
+        <v>70982942.31955855</v>
+      </c>
+      <c r="AT30">
+        <v>23660980.77318618</v>
+      </c>
+      <c r="AU30">
+        <v>3.8</v>
+      </c>
+      <c r="AV30">
         <v>27116401.06105823</v>
       </c>
-      <c r="AH30">
-        <v>33963130.2964395</v>
-      </c>
-      <c r="AI30">
-        <v>70982942.31955855</v>
-      </c>
-      <c r="AJ30">
-        <v>23660980.77318618</v>
-      </c>
-      <c r="AK30">
+      <c r="AW30">
         <v>50777381.83424442</v>
       </c>
-      <c r="AM30">
+      <c r="AY30">
         <v>0.389360698</v>
       </c>
-      <c r="AN30">
+      <c r="AZ30">
+        <v>506625</v>
+      </c>
+      <c r="BA30">
+        <v>93872.95540715872</v>
+      </c>
+      <c r="BB30">
+        <v>47210.20837032957</v>
+      </c>
+      <c r="BC30">
+        <v>98669.33549398879</v>
+      </c>
+      <c r="BD30">
+        <v>32889.77849799626</v>
+      </c>
+      <c r="BE30">
+        <v>0.035</v>
+      </c>
+      <c r="BF30">
         <v>35908.89168551968</v>
       </c>
-      <c r="AO30">
-        <v>47210.20837032957</v>
-      </c>
-      <c r="AP30">
-        <v>98669.33549398879</v>
-      </c>
-      <c r="AQ30">
-        <v>32889.77849799626</v>
-      </c>
-      <c r="AR30">
+      <c r="BG30">
         <v>68798.67018351593</v>
       </c>
-      <c r="AT30">
+      <c r="BI30">
         <v>0.389360698</v>
       </c>
-      <c r="AU30">
+      <c r="BJ30">
         <v>0.07256684538830897</v>
       </c>
-      <c r="AV30">
+      <c r="BK30">
         <v>44846554.58040205</v>
       </c>
-      <c r="AW30">
+      <c r="BL30">
         <v>243359.9056918466</v>
       </c>
-      <c r="AX30">
+      <c r="BM30">
         <v>50777381.83424442</v>
       </c>
-      <c r="AY30">
+      <c r="BN30">
         <v>68798.67018351593</v>
       </c>
-      <c r="AZ30">
+      <c r="BO30">
         <v>15417.86747071326</v>
       </c>
-      <c r="BA30">
+      <c r="BP30">
         <v>34015837.74451508</v>
       </c>
-      <c r="BB30">
+      <c r="BQ30">
         <v>-61935675.11347747</v>
       </c>
     </row>
-    <row r="31" spans="2:54">
+    <row r="31" spans="2:69">
       <c r="B31">
         <v>0.405916534</v>
       </c>
@@ -4822,108 +6211,153 @@
         <v>147.645</v>
       </c>
       <c r="O31">
+        <v>2.3625</v>
+      </c>
+      <c r="P31">
         <v>2864965.979240548</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>6004968.692488189</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>2001656.230829396</v>
       </c>
-      <c r="R31">
+      <c r="S31">
+        <v>715.6940763959248</v>
+      </c>
+      <c r="T31">
         <v>567223.3402475902</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <v>48154898.15643605</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>50156554.38726544</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <v>0.405916534</v>
       </c>
-      <c r="W31">
+      <c r="Y31">
+        <v>113.565</v>
+      </c>
+      <c r="Z31">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA31">
+        <v>1017.042095687318</v>
+      </c>
+      <c r="AB31">
+        <v>3.7935</v>
+      </c>
+      <c r="AC31">
         <v>356983.1646849839</v>
       </c>
-      <c r="X31">
+      <c r="AD31">
         <v>746094.8141916163</v>
       </c>
-      <c r="Y31">
+      <c r="AE31">
         <v>248698.2713972054</v>
       </c>
-      <c r="Z31">
+      <c r="AF31">
         <v>248698.2713972054</v>
       </c>
-      <c r="AB31">
+      <c r="AH31">
         <v>0.405916534</v>
       </c>
-      <c r="AC31">
+      <c r="AI31">
+        <v>-5.600504</v>
+      </c>
+      <c r="AJ31">
+        <v>20</v>
+      </c>
+      <c r="AK31">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL31">
         <v>1963208.102781263</v>
       </c>
-      <c r="AD31">
+      <c r="AM31">
         <v>15941.24979458385</v>
       </c>
-      <c r="AF31">
+      <c r="AO31">
         <v>0.405916534</v>
       </c>
-      <c r="AG31">
+      <c r="AP31">
+        <v>917.1970444993552</v>
+      </c>
+      <c r="AQ31">
+        <v>1.75</v>
+      </c>
+      <c r="AR31">
+        <v>35330822.18840449</v>
+      </c>
+      <c r="AS31">
+        <v>73841418.37376538</v>
+      </c>
+      <c r="AT31">
+        <v>24613806.12458846</v>
+      </c>
+      <c r="AU31">
+        <v>3.8</v>
+      </c>
+      <c r="AV31">
         <v>28405592.46814503</v>
       </c>
-      <c r="AH31">
-        <v>35330822.18840449</v>
-      </c>
-      <c r="AI31">
-        <v>73841418.37376538</v>
-      </c>
-      <c r="AJ31">
-        <v>24613806.12458846</v>
-      </c>
-      <c r="AK31">
+      <c r="AW31">
         <v>53019398.59273349</v>
       </c>
-      <c r="AM31">
+      <c r="AY31">
         <v>0.405916534</v>
       </c>
-      <c r="AN31">
+      <c r="AZ31">
+        <v>506625</v>
+      </c>
+      <c r="BA31">
+        <v>98359.56956019168</v>
+      </c>
+      <c r="BB31">
+        <v>48591.13365384749</v>
+      </c>
+      <c r="BC31">
+        <v>101555.4693365412</v>
+      </c>
+      <c r="BD31">
+        <v>33851.82311218041</v>
+      </c>
+      <c r="BE31">
+        <v>0.035</v>
+      </c>
+      <c r="BF31">
         <v>37625.14042784589</v>
       </c>
-      <c r="AO31">
-        <v>48591.13365384749</v>
-      </c>
-      <c r="AP31">
-        <v>101555.4693365412</v>
-      </c>
-      <c r="AQ31">
-        <v>33851.82311218041</v>
-      </c>
-      <c r="AR31">
+      <c r="BG31">
         <v>71476.96354002631</v>
       </c>
-      <c r="AT31">
+      <c r="BI31">
         <v>0.405916534</v>
       </c>
-      <c r="AU31">
+      <c r="BJ31">
         <v>0.0664612380601023</v>
       </c>
-      <c r="AV31">
+      <c r="BK31">
         <v>50156554.38726544</v>
       </c>
-      <c r="AW31">
+      <c r="BL31">
         <v>248698.2713972054</v>
       </c>
-      <c r="AX31">
+      <c r="BM31">
         <v>53019398.59273349</v>
       </c>
-      <c r="AY31">
+      <c r="BN31">
         <v>71476.96354002631</v>
       </c>
-      <c r="AZ31">
+      <c r="BO31">
         <v>15941.24979458385</v>
       </c>
-      <c r="BA31">
+      <c r="BP31">
         <v>31419610.47074104</v>
       </c>
-      <c r="BB31">
+      <c r="BQ31">
         <v>-72092458.99398972</v>
       </c>
     </row>
